--- a/Formulacion.xlsx
+++ b/Formulacion.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CETI\Proyecto\Proyecto\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2647C0BA-AB22-4914-AB3D-33E3F2C43D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Control-Incinerador PLASTIRAL" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Articulos empresa" sheetId="2" r:id="rId5"/>
+    <sheet name="Control-Incinerador PLASTIRAL" sheetId="1" r:id="rId1"/>
+    <sheet name="Articulos empresa" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="M6neyolM0u+znf5kglGoT2Bu5ZTC9rKDgQArXCnQEzc="/>
@@ -17,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="267">
   <si>
     <t>Formulacion Proyecto Mecatronico</t>
   </si>
@@ -163,9 +172,6 @@
     <t>Mantiene una temperatura adecuada dentro del gabinete de control: https://www.mercadolibre.com.mx/ventilador-4-pulgadas-12v-plastico-80mm-510-740-led-negro/p/MLM46793788#polycard_client=search-nordic&amp;searchVariation=MLM46793788&amp;wid=MLM3586739160&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=f678bdda-e402-43fa-8624-78f807577b04&amp;sid=search</t>
   </si>
   <si>
-    <t>Ventilador Opcion 2</t>
-  </si>
-  <si>
     <t>Mantiene una temperatura adecuada dentro del gabinete de control: https://articulo.mercadolibre.com.mx/MLM-3144673702-ventilador-axial-ec-110v-220v-aire-gabinete-cpu-incubadora-_JM?searchVariation=183188630733#polycard_client=search-nordic&amp;searchVariation=183188630733&amp;position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=3606cd8c-a614-4e81-abb4-6aca11468968</t>
   </si>
   <si>
@@ -812,49 +818,63 @@
   </si>
   <si>
     <t>Dobladora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ya lo tenemos </t>
+  </si>
+  <si>
+    <t>Puede que no sea necesario</t>
+  </si>
+  <si>
+    <t>Ventilador - Opcion 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="D/M/YYYY"/>
+    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
   <fonts count="6">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos"/>
     </font>
-    <font/>
     <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -874,29 +894,59 @@
         <bgColor rgb="FFFFC000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
-    <border/>
+  <borders count="6">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -906,6 +956,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -920,84 +971,112 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="29">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1187,851 +1266,869 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:O1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:I2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="6.0"/>
-    <col customWidth="1" min="2" max="2" width="37.88"/>
-    <col customWidth="1" min="3" max="3" width="8.13"/>
-    <col customWidth="1" min="4" max="4" width="70.25"/>
-    <col customWidth="1" min="5" max="5" width="18.75"/>
-    <col customWidth="1" min="6" max="6" width="10.63"/>
-    <col customWidth="1" min="7" max="7" width="16.0"/>
-    <col customWidth="1" min="8" max="8" width="19.63"/>
-    <col customWidth="1" min="9" max="9" width="15.13"/>
-    <col customWidth="1" min="10" max="12" width="10.63"/>
-    <col customWidth="1" min="13" max="13" width="13.0"/>
-    <col customWidth="1" min="14" max="14" width="28.25"/>
-    <col customWidth="1" min="15" max="26" width="10.63"/>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" customWidth="1"/>
+    <col min="4" max="4" width="70.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="10" max="12" width="10.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="28.28515625" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="26" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="30.0" customHeight="1">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:15" ht="30" customHeight="1">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" ht="33.75" customHeight="1">
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="3"/>
-      <c r="M3" s="4" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" spans="2:15" ht="33.75" customHeight="1">
+      <c r="B3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="17"/>
+      <c r="M3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" ht="23.25" customHeight="1">
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="2:15" ht="23.25" customHeight="1">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" ht="33.75" customHeight="1">
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="2:15" ht="33.75" customHeight="1">
+      <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="M5" s="4" t="s">
+      <c r="D5" s="17"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="M5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" ht="28.5" customHeight="1">
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="2:15" ht="28.5" customHeight="1">
+      <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="M6" s="4" t="s">
+      <c r="D6" s="17"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="M6" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="N6" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="O6" s="23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="13" t="s">
+    <row r="7" spans="2:15" ht="15.75">
+      <c r="B7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="6" t="s">
+      <c r="D7" s="17"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="13" t="s">
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="2:15" ht="15.75">
+      <c r="B8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="6" t="s">
+      <c r="D8" s="17"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="13" t="s">
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="2:15" ht="15.75">
+      <c r="B9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="14" t="s">
+      <c r="D9" s="17"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="3">
+        <v>2</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="O9" s="27"/>
+    </row>
+    <row r="10" spans="2:15" ht="15.75">
+      <c r="B10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="13" t="s">
+      <c r="D10" s="17"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="O10" s="27"/>
+    </row>
+    <row r="11" spans="2:15" ht="15.75">
+      <c r="B11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="13" t="s">
+      <c r="D11" s="17"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+    </row>
+    <row r="12" spans="2:15" ht="15.75">
+      <c r="B12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="6" t="s">
+      <c r="D12" s="17"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="13" t="s">
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="2:15" ht="15.75">
+      <c r="B13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="6" t="s">
+      <c r="D13" s="17"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="15" t="s">
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="2:15" ht="15.75">
+      <c r="B14" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15">
-      <c r="B15" s="14" t="s">
+      <c r="D14" s="17"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="3">
+        <v>3</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="2:15" ht="15.75">
+      <c r="B15" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="14" t="s">
+      <c r="D15" s="17"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="2:15" ht="15.75">
+      <c r="B16" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="14" t="s">
+      <c r="D16" s="17"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="2:9" ht="15.75">
+      <c r="B17" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-    </row>
-    <row r="18">
-      <c r="B18" s="14" t="s">
+      <c r="D17" s="17"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="2:9" ht="15.75">
+      <c r="B18" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-    </row>
-    <row r="19">
-      <c r="B19" s="14" t="s">
+      <c r="D18" s="21"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="2:9" ht="15.75">
+      <c r="B19" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C19" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="D19" s="21"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="3">
+        <v>2</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="2:9" ht="15.75">
+      <c r="B20" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-    </row>
-    <row r="20">
-      <c r="B20" s="14" t="s">
+      <c r="C20" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="D20" s="17"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B21" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="B21" s="14" t="s">
+      <c r="C21" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="D21" s="17"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="3">
+        <v>3</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B22" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="B22" s="13" t="s">
+      <c r="C22" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="D22" s="17"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B23" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="B23" s="14" t="s">
+      <c r="C23" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="D23" s="17"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="3">
+        <v>2</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B24" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="B24" s="14" t="s">
+      <c r="C24" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="D24" s="17"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="3">
+        <v>2</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B25" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="B25" s="14" t="s">
+      <c r="C25" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="D25" s="17"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B26" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="B26" s="14" t="s">
+      <c r="C26" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="D26" s="17"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B27" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="B27" s="14" t="s">
+      <c r="C27" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="D27" s="17"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B28" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="B28" s="14" t="s">
+      <c r="C28" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="D28" s="17"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B29" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="B29" s="14" t="s">
+      <c r="C29" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="D29" s="17"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B30" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="B30" s="15" t="s">
+      <c r="C30" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="D30" s="17"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B31" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="B31" s="14" t="s">
+      <c r="C31" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="D31" s="17"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B32" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="B32" s="14" t="s">
+      <c r="C32" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="D32" s="17"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B33" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="B33" s="14" t="s">
+      <c r="C33" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="D33" s="17"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B34" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="B34" s="14" t="s">
+      <c r="C34" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="D34" s="17"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B35" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="B35" s="14" t="s">
+      <c r="C35" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="D35" s="17"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B36" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="B36" s="14" t="s">
+      <c r="C36" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="D36" s="17"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B37" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="B37" s="14" t="s">
+      <c r="C37" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="D37" s="17"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B38" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="B38" s="14" t="s">
+      <c r="C38" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="D38" s="17"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B39" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="B39" s="14" t="s">
+      <c r="C39" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="D39" s="17"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B40" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="B40" s="14" t="s">
+      <c r="C40" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="D40" s="17"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B41" s="8"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B42" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="B41" s="14"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="B42" s="14" t="s">
+      <c r="C42" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="B43" s="14"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="B44" s="14"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="B45" s="14"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-    </row>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+    </row>
+    <row r="43" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B43" s="8"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B44" s="8"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B45" s="8"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+    </row>
+    <row r="48" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+    </row>
+    <row r="49" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+    </row>
+    <row r="50" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+    </row>
+    <row r="51" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+    </row>
+    <row r="52" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+    </row>
+    <row r="53" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+    </row>
+    <row r="54" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+    </row>
+    <row r="55" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+    </row>
+    <row r="56" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+    </row>
+    <row r="57" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+    </row>
+    <row r="58" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+    </row>
+    <row r="59" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+    </row>
+    <row r="60" spans="2:6" ht="15.75" customHeight="1"/>
+    <row r="61" spans="2:6" ht="15.75" customHeight="1"/>
+    <row r="62" spans="2:6" ht="15.75" customHeight="1"/>
+    <row r="63" spans="2:6" ht="15.75" customHeight="1"/>
+    <row r="64" spans="2:6" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1"/>
@@ -2969,42 +3066,10 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
+  <mergeCells count="47">
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="C37:D37"/>
@@ -3014,1465 +3079,1530 @@
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="C3:W1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="10.63"/>
-    <col customWidth="1" min="3" max="3" width="23.38"/>
-    <col customWidth="1" min="4" max="4" width="9.0"/>
-    <col customWidth="1" min="5" max="5" width="7.38"/>
-    <col customWidth="1" min="6" max="6" width="27.75"/>
-    <col customWidth="1" min="7" max="7" width="31.38"/>
-    <col customWidth="1" min="8" max="8" width="14.75"/>
-    <col customWidth="1" min="9" max="9" width="47.0"/>
-    <col customWidth="1" min="10" max="10" width="20.63"/>
-    <col customWidth="1" min="11" max="11" width="31.13"/>
-    <col customWidth="1" min="12" max="12" width="9.0"/>
-    <col customWidth="1" min="13" max="13" width="7.38"/>
-    <col customWidth="1" min="14" max="14" width="15.0"/>
-    <col customWidth="1" min="15" max="15" width="25.63"/>
-    <col customWidth="1" min="16" max="16" width="11.25"/>
-    <col customWidth="1" min="17" max="17" width="45.25"/>
-    <col customWidth="1" min="18" max="18" width="20.63"/>
-    <col customWidth="1" min="19" max="19" width="31.13"/>
-    <col customWidth="1" min="20" max="20" width="9.0"/>
-    <col customWidth="1" min="21" max="21" width="7.38"/>
-    <col customWidth="1" min="22" max="22" width="25.13"/>
-    <col customWidth="1" min="23" max="23" width="42.75"/>
-    <col customWidth="1" min="24" max="26" width="10.63"/>
+    <col min="1" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" customWidth="1"/>
+    <col min="7" max="7" width="31.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="47" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" customWidth="1"/>
+    <col min="11" max="11" width="31.140625" customWidth="1"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" customWidth="1"/>
+    <col min="14" max="14" width="15" customWidth="1"/>
+    <col min="15" max="15" width="25.5703125" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" customWidth="1"/>
+    <col min="17" max="17" width="45.28515625" customWidth="1"/>
+    <col min="18" max="18" width="20.5703125" customWidth="1"/>
+    <col min="19" max="19" width="31.140625" customWidth="1"/>
+    <col min="20" max="20" width="9" customWidth="1"/>
+    <col min="21" max="21" width="7.42578125" customWidth="1"/>
+    <col min="22" max="22" width="25.140625" customWidth="1"/>
+    <col min="23" max="23" width="42.7109375" customWidth="1"/>
+    <col min="24" max="26" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3">
-      <c r="C3" s="18" t="s">
+    <row r="3" spans="3:23">
+      <c r="C3" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+    </row>
+    <row r="4" spans="3:23">
+      <c r="C4" s="22" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="C4" s="18" t="s">
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="11"/>
+      <c r="K4" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="K4" s="18" t="s">
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="11"/>
+      <c r="S4" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="Q4" s="18"/>
-      <c r="S4" s="18" t="s">
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+    </row>
+    <row r="5" spans="3:23">
+      <c r="C5" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="G5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="M5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="N5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="P5" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="Q5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V5" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="W5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M5" s="4" t="s">
+    </row>
+    <row r="6" spans="3:23">
+      <c r="C6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="K6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="3:23">
+      <c r="C7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="13">
+        <v>45722</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="K7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L7" s="1">
+        <v>5</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="3:23">
+      <c r="C8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" s="13">
+        <v>45722</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="K8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L8" s="1">
+        <v>4</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="3:23">
+      <c r="C9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="K9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L9" s="1">
+        <v>4</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="3:23">
+      <c r="C10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="K10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" s="1">
+        <v>3</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="3:23" ht="30">
+      <c r="C11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" s="13">
+        <v>45722</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="K11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L11" s="1">
+        <v>4</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="3:23">
+      <c r="C12" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="K12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L12" s="1">
+        <v>2</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="3:23" ht="30">
+      <c r="C13" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" s="13">
+        <v>45722</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="K13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="3:23">
+      <c r="C14" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="K14" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="3:23">
+      <c r="C15" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="K15" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="L15" s="1">
+        <v>4</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="3:23">
+      <c r="C16" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="K16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L16" s="1">
+        <v>4</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13">
+      <c r="C17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="K17" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L17" s="1">
+        <v>5</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13">
+      <c r="C18" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="K18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13">
+      <c r="C19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19" s="13">
+        <v>45722</v>
+      </c>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="K19" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L19" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13">
+      <c r="C20" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="K20" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L20" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" ht="15.75" customHeight="1">
+      <c r="C21" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="K21" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L21" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" ht="15.75" customHeight="1">
+      <c r="C22" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="K22" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="L22" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" ht="15.75" customHeight="1">
+      <c r="C23" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="K23" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" ht="15.75" customHeight="1">
+      <c r="C24" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G24" s="13">
+        <v>45722</v>
+      </c>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="K24" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="L24" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" ht="15.75" customHeight="1">
+      <c r="C25" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D25" s="1">
+        <v>5</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="K25" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="L25" s="1">
+        <v>4</v>
+      </c>
+      <c r="M25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" ht="15.75" customHeight="1">
+      <c r="C26" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="K26" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" ht="15.75" customHeight="1">
+      <c r="C27" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="K27" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" ht="15.75" customHeight="1">
+      <c r="C28" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="K28" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="L28" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" ht="15.75" customHeight="1">
+      <c r="C29" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="K29" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" ht="15.75" customHeight="1">
+      <c r="C30" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D30" s="1">
+        <v>5</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="K30" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="L30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" ht="15.75" customHeight="1">
+      <c r="C31" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="K31" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L31" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" ht="15.75" customHeight="1">
+      <c r="C32" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D32" s="1">
+        <v>5</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="K32" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="L32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="3:14" ht="15.75" customHeight="1">
+      <c r="C33" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2</v>
+      </c>
+      <c r="F33" s="12"/>
+      <c r="K33" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="L33" s="1">
+        <v>4</v>
+      </c>
+      <c r="M33" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:14" ht="15.75" customHeight="1">
+      <c r="C34" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="12"/>
+      <c r="K34" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="L34" s="1">
+        <v>4</v>
+      </c>
+      <c r="M34" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="3:14" ht="15.75" customHeight="1">
+      <c r="C35" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D35" s="1">
+        <v>3</v>
+      </c>
+      <c r="F35" s="12"/>
+      <c r="K35" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="L35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="3:14" ht="15.75" customHeight="1">
+      <c r="C36" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="12"/>
+      <c r="K36" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="L36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="3:14" ht="15.75" customHeight="1">
+      <c r="C37" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D37" s="1">
+        <v>5</v>
+      </c>
+      <c r="F37" s="12"/>
+      <c r="K37" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L37" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="3:14" ht="15.75" customHeight="1">
+      <c r="C38" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D38" s="1">
+        <v>5</v>
+      </c>
+      <c r="E38" s="1">
+        <v>2</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G38" s="13">
+        <v>45722</v>
+      </c>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="K38" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="3:14" ht="15.75" customHeight="1">
+      <c r="C39" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D39" s="1">
+        <v>5</v>
+      </c>
+      <c r="E39" s="1">
+        <v>3</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G39" s="13">
+        <v>45722</v>
+      </c>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="K39" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="L39" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="40" spans="3:14" ht="15.75" customHeight="1">
+      <c r="C40" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D40" s="1">
+        <v>5</v>
+      </c>
+      <c r="F40" s="12"/>
+      <c r="K40" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="L40" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="3:14" ht="15.75" customHeight="1">
+      <c r="C41" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D41" s="1">
+        <v>3</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="G41" s="13">
+        <v>45722</v>
+      </c>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="K41" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="L41" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="3:14" ht="15.75" customHeight="1">
+      <c r="C42" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="12"/>
+      <c r="K42" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="L42" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="3:14" ht="15.75" customHeight="1">
+      <c r="C43" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D43" s="1">
+        <v>3</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G43" s="13">
+        <v>45722</v>
+      </c>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="K43" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L43" s="1">
+        <v>4</v>
+      </c>
+      <c r="M43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="3:14" ht="15.75" customHeight="1">
+      <c r="C44" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D44" s="1">
+        <v>3</v>
+      </c>
+      <c r="F44" s="12"/>
+      <c r="K44" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="L44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="3:14" ht="15.75" customHeight="1">
+      <c r="C45" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1</v>
+      </c>
+      <c r="F45" s="12"/>
+      <c r="K45" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="L45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="3:14" ht="15.75" customHeight="1">
+      <c r="C46" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="12"/>
+      <c r="K46" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="L46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="3:14" ht="15.75" customHeight="1">
+      <c r="C47" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D47" s="1">
+        <v>4</v>
+      </c>
+      <c r="F47" s="12"/>
+      <c r="K47" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="L47" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="3:14" ht="15.75" customHeight="1">
+      <c r="C48" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1</v>
+      </c>
+      <c r="F48" s="12"/>
+      <c r="K48" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="L48" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" ht="15.75" customHeight="1">
+      <c r="C49" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1</v>
+      </c>
+      <c r="F49" s="12"/>
+      <c r="K49" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L49" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" ht="15.75" customHeight="1">
+      <c r="C50" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="12"/>
+      <c r="K50" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" ht="15.75" customHeight="1">
+      <c r="C51" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51" s="12"/>
+      <c r="K51" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L51" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" ht="15.75" customHeight="1">
+      <c r="F52" s="12"/>
+      <c r="K52" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" ht="15.75" customHeight="1">
+      <c r="F53" s="12"/>
+      <c r="K53" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" ht="15.75" customHeight="1">
+      <c r="F54" s="12"/>
+      <c r="K54" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="L54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" ht="15.75" customHeight="1">
+      <c r="F55" s="12"/>
+      <c r="K55" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="3:12" ht="15.75" customHeight="1">
+      <c r="F56" s="12"/>
+      <c r="K56" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="3:12" ht="15.75" customHeight="1">
+      <c r="F57" s="12"/>
+      <c r="K57" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="L57" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" ht="15.75" customHeight="1">
+      <c r="F58" s="12"/>
+      <c r="K58" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="L58" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" ht="15.75" customHeight="1">
+      <c r="F59" s="12"/>
+      <c r="K59" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="L59" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" ht="15.75" customHeight="1">
+      <c r="F60" s="12"/>
+      <c r="K60" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="L60" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" ht="15.75" customHeight="1">
+      <c r="F61" s="12"/>
+      <c r="K61" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="L61" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" ht="15.75" customHeight="1">
+      <c r="F62" s="12"/>
+      <c r="K62" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L62" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" ht="15.75" customHeight="1">
+      <c r="F63" s="12"/>
+      <c r="K63" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" ht="15.75" customHeight="1">
+      <c r="F64" s="12"/>
+      <c r="K64" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="6:13" ht="15.75" customHeight="1">
+      <c r="F65" s="12"/>
+      <c r="K65" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="L65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="6:13" ht="15.75" customHeight="1">
+      <c r="F66" s="12"/>
+      <c r="K66" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="L66" s="1">
+        <v>3</v>
+      </c>
+      <c r="M66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="6:13" ht="15.75" customHeight="1">
+      <c r="F67" s="12"/>
+      <c r="K67" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="L67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="6:13" ht="15.75" customHeight="1">
+      <c r="F68" s="12"/>
+      <c r="K68" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="L68" s="1">
+        <v>4</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="69" spans="6:13" ht="15.75" customHeight="1">
+      <c r="F69" s="12"/>
+      <c r="K69" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="L69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="6:13" ht="15.75" customHeight="1">
+      <c r="F70" s="12"/>
+      <c r="K70" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="L70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="6:13" ht="15.75" customHeight="1">
+      <c r="F71" s="12"/>
+      <c r="K71" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="L71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="6:13" ht="15.75" customHeight="1">
+      <c r="F72" s="12"/>
+      <c r="K72" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="L72" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="6:13" ht="15.75" customHeight="1">
+      <c r="F73" s="12"/>
+      <c r="K73" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="L73" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="6:13" ht="15.75" customHeight="1">
+      <c r="F74" s="12"/>
+      <c r="K74" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="L74" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="6:13" ht="15.75" customHeight="1">
+      <c r="F75" s="12"/>
+      <c r="K75" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="L75" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="6:13" ht="15.75" customHeight="1">
+      <c r="F76" s="12"/>
+      <c r="K76" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="L76" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="6:13" ht="15.75" customHeight="1">
+      <c r="F77" s="12"/>
+      <c r="K77" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="6:13" ht="15.75" customHeight="1">
+      <c r="F78" s="12"/>
+      <c r="K78" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="6:13" ht="15.75" customHeight="1">
+      <c r="F79" s="12"/>
+      <c r="K79" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="L79" s="1">
         <v>7</v>
       </c>
-      <c r="N5" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q5" s="4" t="s">
+    </row>
+    <row r="80" spans="6:13" ht="15.75" customHeight="1">
+      <c r="F80" s="12"/>
+      <c r="K80" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L80" s="1">
+        <v>3</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="81" spans="6:13" ht="15.75" customHeight="1">
+      <c r="F81" s="12"/>
+      <c r="K81" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="L81" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="6:13" ht="15.75" customHeight="1">
+      <c r="F82" s="12"/>
+      <c r="K82" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L82" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="6:13" ht="15.75" customHeight="1">
+      <c r="F83" s="12"/>
+      <c r="K83" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="6:13" ht="15.75" customHeight="1">
+      <c r="F84" s="12"/>
+      <c r="K84" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="L84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="6:13" ht="15.75" customHeight="1">
+      <c r="F85" s="12"/>
+      <c r="K85" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="6:13" ht="15.75" customHeight="1">
+      <c r="F86" s="12"/>
+      <c r="K86" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="L86" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="6:13" ht="15.75" customHeight="1">
+      <c r="F87" s="12"/>
+      <c r="K87" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="L87" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="6:13" ht="15.75" customHeight="1">
+      <c r="F88" s="12"/>
+      <c r="K88" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="L88" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="6:13" ht="15.75" customHeight="1">
+      <c r="F89" s="12"/>
+      <c r="K89" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="L89" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="6:13" ht="15.75" customHeight="1">
+      <c r="F90" s="12"/>
+      <c r="K90" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="L90" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="6:13" ht="15.75" customHeight="1">
+      <c r="F91" s="12"/>
+      <c r="K91" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="L91" s="1">
         <v>6</v>
       </c>
-      <c r="S5" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="C6" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F6" s="19"/>
-      <c r="K6" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="L6" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="G7" s="20">
-        <v>45722.0</v>
-      </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="K7" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="L7" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="M7" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="G8" s="20">
-        <v>45722.0</v>
-      </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="K8" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="L8" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="C9" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D9" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F9" s="19"/>
-      <c r="K9" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="L9" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="C10" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D10" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="F10" s="19"/>
-      <c r="K10" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="L10" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="M10" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="C11" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="G11" s="20">
-        <v>45722.0</v>
-      </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="K11" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="L11" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="S11" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="C12" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D12" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F12" s="19"/>
-      <c r="K12" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="L12" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="S12" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="C13" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D13" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="E13" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="G13" s="20">
-        <v>45722.0</v>
-      </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="K13" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="L13" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="S13" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="C14" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D14" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="K14" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="L14" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="S14" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="C15" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F15" s="19"/>
-      <c r="K15" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="L15" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="S15" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="C16" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F16" s="19"/>
-      <c r="K16" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="L16" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="M16" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="S16" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="C17" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D17" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F17" s="19"/>
-      <c r="K17" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="L17" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="M17" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="C18" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D18" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F18" s="19"/>
-      <c r="K18" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="L18" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="C19" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D19" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="E19" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="G19" s="20">
-        <v>45722.0</v>
-      </c>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="K19" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="L19" s="4">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="C20" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D20" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F20" s="19"/>
-      <c r="K20" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="L20" s="4">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="C21" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D21" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F21" s="19"/>
-      <c r="K21" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="L21" s="4">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="C22" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D22" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F22" s="19"/>
-      <c r="K22" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="L22" s="4">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="C23" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D23" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F23" s="19"/>
-      <c r="K23" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="L23" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="C24" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D24" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="E24" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="G24" s="20">
-        <v>45722.0</v>
-      </c>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="K24" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="L24" s="4">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="C25" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D25" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="F25" s="19"/>
-      <c r="K25" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="L25" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="M25" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="C26" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D26" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F26" s="19"/>
-      <c r="K26" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="L26" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="C27" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D27" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F27" s="19"/>
-      <c r="K27" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="L27" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="C28" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D28" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F28" s="19"/>
-      <c r="K28" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="L28" s="4">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="C29" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D29" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F29" s="19"/>
-      <c r="K29" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="L29" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="C30" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D30" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="F30" s="19"/>
-      <c r="K30" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="L30" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="C31" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D31" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F31" s="19"/>
-      <c r="K31" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="L31" s="4">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="C32" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D32" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="F32" s="19"/>
-      <c r="K32" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="L32" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="C33" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D33" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F33" s="19"/>
-      <c r="K33" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="L33" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="M33" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="C34" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D34" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F34" s="19"/>
-      <c r="K34" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="L34" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="M34" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="C35" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D35" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F35" s="19"/>
-      <c r="K35" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="L35" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="C36" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D36" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F36" s="19"/>
-      <c r="K36" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="L36" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="C37" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D37" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="F37" s="19"/>
-      <c r="K37" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="L37" s="4">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="C38" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="D38" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="E38" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F38" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="G38" s="20">
-        <v>45722.0</v>
-      </c>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="K38" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="L38" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="C39" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D39" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="E39" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F39" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="G39" s="20">
-        <v>45722.0</v>
-      </c>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="K39" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="L39" s="21" t="s">
+      <c r="M91" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="6:13" ht="15.75" customHeight="1">
+      <c r="F92" s="12"/>
+      <c r="K92" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="L92" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="6:13" ht="15.75" customHeight="1">
+      <c r="F93" s="12"/>
+      <c r="K93" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L93" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="6:13" ht="15.75" customHeight="1">
+      <c r="F94" s="12"/>
+      <c r="K94" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L94" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="6:13" ht="15.75" customHeight="1">
+      <c r="F95" s="12"/>
+      <c r="K95" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="L95" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="6:13" ht="15.75" customHeight="1">
+      <c r="F96" s="12"/>
+      <c r="K96" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="L96" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="6:13" ht="15.75" customHeight="1">
+      <c r="F97" s="12"/>
+      <c r="K97" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="L97" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="6:13" ht="15.75" customHeight="1">
+      <c r="F98" s="12"/>
+      <c r="K98" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="L98" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="6:13" ht="15.75" customHeight="1">
+      <c r="F99" s="12"/>
+      <c r="K99" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L99" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N39" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="C40" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D40" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="F40" s="19"/>
-      <c r="K40" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="L40" s="4">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="C41" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D41" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="F41" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="G41" s="20">
-        <v>45722.0</v>
-      </c>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="K41" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="L41" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="C42" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="D42" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F42" s="19"/>
-      <c r="K42" s="4" t="s">
+    </row>
+    <row r="100" spans="6:13" ht="15.75" customHeight="1">
+      <c r="F100" s="12"/>
+      <c r="K100" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="L100" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="6:13" ht="15.75" customHeight="1">
+      <c r="K101" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="L101" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="6:13" ht="15.75" customHeight="1">
+      <c r="K102" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="L102" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="6:13" ht="15.75" customHeight="1">
+      <c r="K103" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="L42" s="4">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="C43" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="D43" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="E43" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F43" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="G43" s="20">
-        <v>45722.0</v>
-      </c>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="K43" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="L43" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="M43" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="C44" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D44" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F44" s="19"/>
-      <c r="K44" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="L44" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="C45" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D45" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F45" s="19"/>
-      <c r="K45" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="L45" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="C46" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D46" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F46" s="19"/>
-      <c r="K46" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="L46" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="C47" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D47" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="F47" s="19"/>
-      <c r="K47" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="L47" s="4">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="C48" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D48" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F48" s="19"/>
-      <c r="K48" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="L48" s="4">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="C49" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D49" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F49" s="19"/>
-      <c r="K49" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="L49" s="4">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="C50" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D50" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F50" s="19"/>
-      <c r="K50" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="L50" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="C51" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D51" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F51" s="19"/>
-      <c r="K51" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="L51" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="F52" s="19"/>
-      <c r="K52" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="L52" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="F53" s="19"/>
-      <c r="K53" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="L53" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="F54" s="19"/>
-      <c r="K54" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="L54" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="F55" s="19"/>
-      <c r="K55" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="L55" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="F56" s="19"/>
-      <c r="K56" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="L56" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="F57" s="19"/>
-      <c r="K57" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="L57" s="4">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="F58" s="19"/>
-      <c r="K58" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="L58" s="4">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="F59" s="19"/>
-      <c r="K59" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="L59" s="4">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="F60" s="19"/>
-      <c r="K60" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="L60" s="4">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="F61" s="19"/>
-      <c r="K61" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="L61" s="4">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
-      <c r="F62" s="19"/>
-      <c r="K62" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="L62" s="4">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="F63" s="19"/>
-      <c r="K63" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="L63" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="F64" s="19"/>
-      <c r="K64" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="L64" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="F65" s="19"/>
-      <c r="K65" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="L65" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="F66" s="19"/>
-      <c r="K66" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="L66" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="M66" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="F67" s="19"/>
-      <c r="K67" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="L67" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
-      <c r="F68" s="19"/>
-      <c r="K68" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="L68" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="M68" s="4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
-      <c r="F69" s="19"/>
-      <c r="K69" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="L69" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
-      <c r="F70" s="19"/>
-      <c r="K70" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="L70" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
-      <c r="F71" s="19"/>
-      <c r="K71" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="L71" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
-      <c r="F72" s="19"/>
-      <c r="K72" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="L72" s="4">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
-      <c r="F73" s="19"/>
-      <c r="K73" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="L73" s="4">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="74" ht="15.75" customHeight="1">
-      <c r="F74" s="19"/>
-      <c r="K74" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="L74" s="4">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="75" ht="15.75" customHeight="1">
-      <c r="F75" s="19"/>
-      <c r="K75" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="L75" s="4">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="76" ht="15.75" customHeight="1">
-      <c r="F76" s="19"/>
-      <c r="K76" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="L76" s="4">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="77" ht="15.75" customHeight="1">
-      <c r="F77" s="19"/>
-      <c r="K77" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="L77" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="78" ht="15.75" customHeight="1">
-      <c r="F78" s="19"/>
-      <c r="K78" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="L78" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="79" ht="15.75" customHeight="1">
-      <c r="F79" s="19"/>
-      <c r="K79" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="L79" s="4">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="80" ht="15.75" customHeight="1">
-      <c r="F80" s="19"/>
-      <c r="K80" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="L80" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="M80" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="81" ht="15.75" customHeight="1">
-      <c r="F81" s="19"/>
-      <c r="K81" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="L81" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="82" ht="15.75" customHeight="1">
-      <c r="F82" s="19"/>
-      <c r="K82" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="L82" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="83" ht="15.75" customHeight="1">
-      <c r="F83" s="19"/>
-      <c r="K83" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="L83" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="84" ht="15.75" customHeight="1">
-      <c r="F84" s="19"/>
-      <c r="K84" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="L84" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="85" ht="15.75" customHeight="1">
-      <c r="F85" s="19"/>
-      <c r="K85" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="L85" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="86" ht="15.75" customHeight="1">
-      <c r="F86" s="19"/>
-      <c r="K86" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="L86" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="87" ht="15.75" customHeight="1">
-      <c r="F87" s="19"/>
-      <c r="K87" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="L87" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="88" ht="15.75" customHeight="1">
-      <c r="F88" s="19"/>
-      <c r="K88" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="L88" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="89" ht="15.75" customHeight="1">
-      <c r="F89" s="19"/>
-      <c r="K89" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="L89" s="4">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="90" ht="15.75" customHeight="1">
-      <c r="F90" s="19"/>
-      <c r="K90" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="L90" s="4">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="91" ht="15.75" customHeight="1">
-      <c r="F91" s="19"/>
-      <c r="K91" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="L91" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="M91" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="92" ht="15.75" customHeight="1">
-      <c r="F92" s="19"/>
-      <c r="K92" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="L92" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="93" ht="15.75" customHeight="1">
-      <c r="F93" s="19"/>
-      <c r="K93" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="L93" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="94" ht="15.75" customHeight="1">
-      <c r="F94" s="19"/>
-      <c r="K94" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="L94" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="95" ht="15.75" customHeight="1">
-      <c r="F95" s="19"/>
-      <c r="K95" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="L95" s="4">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="96" ht="15.75" customHeight="1">
-      <c r="F96" s="19"/>
-      <c r="K96" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="L96" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="97" ht="15.75" customHeight="1">
-      <c r="F97" s="19"/>
-      <c r="K97" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="L97" s="4">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="98" ht="15.75" customHeight="1">
-      <c r="F98" s="19"/>
-      <c r="K98" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="L98" s="4">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="99" ht="15.75" customHeight="1">
-      <c r="F99" s="19"/>
-      <c r="K99" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="L99" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="100" ht="15.75" customHeight="1">
-      <c r="F100" s="19"/>
-      <c r="K100" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="L100" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="101" ht="15.75" customHeight="1">
-      <c r="K101" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="L101" s="4">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="102" ht="15.75" customHeight="1">
-      <c r="K102" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="L102" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="103" ht="15.75" customHeight="1">
-      <c r="K103" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="L103" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="M103" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
+      <c r="L103" s="1">
+        <v>5</v>
+      </c>
+      <c r="M103" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="6:13" ht="15.75" customHeight="1"/>
+    <row r="105" spans="6:13" ht="15.75" customHeight="1"/>
+    <row r="106" spans="6:13" ht="15.75" customHeight="1"/>
+    <row r="107" spans="6:13" ht="15.75" customHeight="1"/>
+    <row r="108" spans="6:13" ht="15.75" customHeight="1"/>
+    <row r="109" spans="6:13" ht="15.75" customHeight="1"/>
+    <row r="110" spans="6:13" ht="15.75" customHeight="1"/>
+    <row r="111" spans="6:13" ht="15.75" customHeight="1"/>
+    <row r="112" spans="6:13" ht="15.75" customHeight="1"/>
     <row r="113" ht="15.75" customHeight="1"/>
     <row r="114" ht="15.75" customHeight="1"/>
     <row r="115" ht="15.75" customHeight="1"/>
@@ -5368,9 +5498,7 @@
     <mergeCell ref="K4:P4"/>
     <mergeCell ref="S4:W4"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Formulacion.xlsx
+++ b/Formulacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CETI\Proyecto\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2647C0BA-AB22-4914-AB3D-33E3F2C43D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F049821-D026-47B9-89D9-3B75907BE586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1030,22 +1030,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1054,10 +1038,26 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1298,35 +1298,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="30" customHeight="1">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="17"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="22"/>
     </row>
     <row r="3" spans="2:15" ht="33.75" customHeight="1">
-      <c r="B3" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="17"/>
-      <c r="M3" s="23" t="s">
+      <c r="B3" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="22"/>
+      <c r="M3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="N3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="23" t="s">
+      <c r="O3" s="15" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1334,10 +1334,10 @@
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="17"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1353,13 +1353,13 @@
       <c r="I4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="23" t="s">
+      <c r="N4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="23" t="s">
+      <c r="O4" s="15" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1367,10 +1367,10 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="17"/>
+      <c r="D5" s="22"/>
       <c r="E5" s="5"/>
       <c r="F5" s="3">
         <v>1</v>
@@ -1378,13 +1378,13 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="M5" s="23" t="s">
+      <c r="M5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="23" t="s">
+      <c r="N5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="23" t="s">
+      <c r="O5" s="15" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1392,10 +1392,10 @@
       <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="17"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="5"/>
       <c r="F6" s="3">
         <v>1</v>
@@ -1403,13 +1403,13 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="M6" s="23" t="s">
+      <c r="M6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="24" t="s">
+      <c r="N6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="O6" s="23" t="s">
+      <c r="O6" s="15" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1417,10 +1417,10 @@
       <c r="B7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="17"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="5"/>
       <c r="F7" s="3" t="s">
         <v>25</v>
@@ -1433,10 +1433,10 @@
       <c r="B8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="22"/>
       <c r="E8" s="5"/>
       <c r="F8" s="3" t="s">
         <v>25</v>
@@ -1449,10 +1449,10 @@
       <c r="B9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="17"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="5"/>
       <c r="F9" s="3">
         <v>2</v>
@@ -1460,20 +1460,20 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="27" t="s">
+      <c r="M9" s="17"/>
+      <c r="N9" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="O9" s="27"/>
+      <c r="O9" s="20"/>
     </row>
     <row r="10" spans="2:15" ht="15.75">
       <c r="B10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="5"/>
       <c r="F10" s="3">
         <v>1</v>
@@ -1481,20 +1481,20 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="27" t="s">
+      <c r="M10" s="18"/>
+      <c r="N10" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="O10" s="27"/>
+      <c r="O10" s="20"/>
     </row>
     <row r="11" spans="2:15" ht="15.75">
       <c r="B11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="17"/>
+      <c r="D11" s="22"/>
       <c r="E11" s="5"/>
       <c r="F11" s="3">
         <v>1</v>
@@ -1502,18 +1502,18 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
     </row>
     <row r="12" spans="2:15" ht="15.75">
       <c r="B12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="17"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="5"/>
       <c r="F12" s="3" t="s">
         <v>36</v>
@@ -1526,10 +1526,10 @@
       <c r="B13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="17"/>
+      <c r="D13" s="22"/>
       <c r="E13" s="5"/>
       <c r="F13" s="3" t="s">
         <v>36</v>
@@ -1542,10 +1542,10 @@
       <c r="B14" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="17"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="5"/>
       <c r="F14" s="3">
         <v>3</v>
@@ -1558,10 +1558,10 @@
       <c r="B15" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="17"/>
+      <c r="D15" s="22"/>
       <c r="E15" s="5"/>
       <c r="F15" s="3">
         <v>1</v>
@@ -1574,10 +1574,10 @@
       <c r="B16" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="17"/>
+      <c r="D16" s="22"/>
       <c r="E16" s="5"/>
       <c r="F16" s="3">
         <v>1</v>
@@ -1590,10 +1590,10 @@
       <c r="B17" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="17"/>
+      <c r="D17" s="22"/>
       <c r="E17" s="5"/>
       <c r="F17" s="3">
         <v>1</v>
@@ -1606,10 +1606,10 @@
       <c r="B18" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="21"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="5"/>
       <c r="F18" s="3">
         <v>1</v>
@@ -1622,10 +1622,10 @@
       <c r="B19" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="21"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="5"/>
       <c r="F19" s="3">
         <v>2</v>
@@ -1638,10 +1638,10 @@
       <c r="B20" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="17"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="6"/>
       <c r="F20" s="3">
         <v>1</v>
@@ -1654,10 +1654,10 @@
       <c r="B21" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="17"/>
+      <c r="D21" s="22"/>
       <c r="E21" s="6"/>
       <c r="F21" s="3">
         <v>3</v>
@@ -1670,10 +1670,10 @@
       <c r="B22" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="17"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="6"/>
       <c r="F22" s="3">
         <v>1</v>
@@ -1686,10 +1686,10 @@
       <c r="B23" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="17"/>
+      <c r="D23" s="22"/>
       <c r="E23" s="6"/>
       <c r="F23" s="3">
         <v>2</v>
@@ -1702,10 +1702,10 @@
       <c r="B24" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="17"/>
+      <c r="D24" s="22"/>
       <c r="E24" s="6"/>
       <c r="F24" s="3">
         <v>2</v>
@@ -1718,10 +1718,10 @@
       <c r="B25" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="17"/>
+      <c r="D25" s="22"/>
       <c r="E25" s="6"/>
       <c r="F25" s="3">
         <v>1</v>
@@ -1734,10 +1734,10 @@
       <c r="B26" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="17"/>
+      <c r="D26" s="22"/>
       <c r="E26" s="6"/>
       <c r="F26" s="3">
         <v>1</v>
@@ -1750,10 +1750,10 @@
       <c r="B27" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="17"/>
+      <c r="D27" s="22"/>
       <c r="E27" s="6"/>
       <c r="F27" s="3">
         <v>1</v>
@@ -1766,10 +1766,10 @@
       <c r="B28" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="17"/>
+      <c r="D28" s="22"/>
       <c r="E28" s="6"/>
       <c r="F28" s="3">
         <v>1</v>
@@ -1782,10 +1782,10 @@
       <c r="B29" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="17"/>
+      <c r="D29" s="22"/>
       <c r="E29" s="6"/>
       <c r="F29" s="3">
         <v>1</v>
@@ -1798,10 +1798,10 @@
       <c r="B30" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="17"/>
+      <c r="D30" s="22"/>
       <c r="E30" s="6"/>
       <c r="F30" s="3">
         <v>1</v>
@@ -1814,10 +1814,10 @@
       <c r="B31" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D31" s="17"/>
+      <c r="D31" s="22"/>
       <c r="E31" s="6"/>
       <c r="F31" s="3">
         <v>1</v>
@@ -1830,10 +1830,10 @@
       <c r="B32" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="17"/>
+      <c r="D32" s="22"/>
       <c r="E32" s="6"/>
       <c r="F32" s="3">
         <v>1</v>
@@ -1846,10 +1846,10 @@
       <c r="B33" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="D33" s="17"/>
+      <c r="D33" s="22"/>
       <c r="E33" s="6"/>
       <c r="F33" s="3">
         <v>1</v>
@@ -1862,10 +1862,10 @@
       <c r="B34" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="17"/>
+      <c r="D34" s="22"/>
       <c r="E34" s="6"/>
       <c r="F34" s="3">
         <v>1</v>
@@ -1878,10 +1878,10 @@
       <c r="B35" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="D35" s="17"/>
+      <c r="D35" s="22"/>
       <c r="E35" s="6"/>
       <c r="F35" s="3">
         <v>1</v>
@@ -1894,10 +1894,10 @@
       <c r="B36" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="17"/>
+      <c r="D36" s="22"/>
       <c r="E36" s="6"/>
       <c r="F36" s="3">
         <v>1</v>
@@ -1910,10 +1910,10 @@
       <c r="B37" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="17"/>
+      <c r="D37" s="22"/>
       <c r="E37" s="6"/>
       <c r="F37" s="3">
         <v>1</v>
@@ -1926,10 +1926,10 @@
       <c r="B38" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D38" s="17"/>
+      <c r="D38" s="22"/>
       <c r="E38" s="6"/>
       <c r="F38" s="3">
         <v>1</v>
@@ -1942,10 +1942,10 @@
       <c r="B39" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="D39" s="17"/>
+      <c r="D39" s="22"/>
       <c r="E39" s="6"/>
       <c r="F39" s="3">
         <v>1</v>
@@ -1958,10 +1958,10 @@
       <c r="B40" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="17"/>
+      <c r="D40" s="22"/>
       <c r="E40" s="6"/>
       <c r="F40" s="3">
         <v>1</v>
@@ -1972,8 +1972,8 @@
     </row>
     <row r="41" spans="2:9" ht="15.75" customHeight="1">
       <c r="B41" s="8"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="17"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="22"/>
       <c r="E41" s="6"/>
       <c r="F41" s="3"/>
       <c r="G41" s="6"/>
@@ -1984,10 +1984,10 @@
       <c r="B42" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D42" s="17"/>
+      <c r="D42" s="22"/>
       <c r="E42" s="6"/>
       <c r="F42" s="3">
         <v>1</v>
@@ -1998,8 +1998,8 @@
     </row>
     <row r="43" spans="2:9" ht="15.75" customHeight="1">
       <c r="B43" s="8"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="17"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="22"/>
       <c r="E43" s="6"/>
       <c r="F43" s="3"/>
       <c r="G43" s="6"/>
@@ -2008,8 +2008,8 @@
     </row>
     <row r="44" spans="2:9" ht="15.75" customHeight="1">
       <c r="B44" s="8"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="17"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="22"/>
       <c r="E44" s="6"/>
       <c r="F44" s="3"/>
       <c r="G44" s="6"/>
@@ -2018,8 +2018,8 @@
     </row>
     <row r="45" spans="2:9" ht="15.75" customHeight="1">
       <c r="B45" s="8"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="17"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="22"/>
       <c r="E45" s="6"/>
       <c r="F45" s="3"/>
       <c r="G45" s="6"/>
@@ -3067,6 +3067,37 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="N10:O10"/>
     <mergeCell ref="N11:O11"/>
@@ -3083,37 +3114,6 @@
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -3154,56 +3154,56 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:23">
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
     </row>
     <row r="4" spans="3:23">
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
       <c r="I4" s="11"/>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
       <c r="Q4" s="11"/>
-      <c r="S4" s="22" t="s">
+      <c r="S4" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
     </row>
     <row r="5" spans="3:23">
       <c r="C5" s="1" t="s">

--- a/Formulacion.xlsx
+++ b/Formulacion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CETI\Proyecto\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F049821-D026-47B9-89D9-3B75907BE586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6C6354-DAD6-444C-B48E-13196DC336A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Control-Incinerador PLASTIRAL" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="268">
   <si>
     <t>Formulacion Proyecto Mecatronico</t>
   </si>
@@ -827,6 +827,9 @@
   </si>
   <si>
     <t>Ventilador - Opcion 2</t>
+  </si>
+  <si>
+    <t>PENDIENTE DIAGRAMA</t>
   </si>
 </sst>
 </file>
@@ -869,7 +872,7 @@
       <name val="Aptos Narrow"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -910,6 +913,24 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFFC000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor rgb="FFDBE9F7"/>
       </patternFill>
     </fill>
   </fills>
@@ -992,7 +1013,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1039,25 +1060,35 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1276,7 +1307,7 @@
   <dimension ref="B2:O1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I2"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -1298,27 +1329,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="30" customHeight="1">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="2:15" ht="33.75" customHeight="1">
-      <c r="B3" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
+      <c r="B3" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
       <c r="I3" s="22"/>
       <c r="M3" s="15" t="s">
         <v>2</v>
@@ -1334,7 +1365,7 @@
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="20" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="22"/>
@@ -1367,7 +1398,7 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="23" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="22"/>
@@ -1389,10 +1420,10 @@
       </c>
     </row>
     <row r="6" spans="2:15" ht="28.5" customHeight="1">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="24" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="22"/>
@@ -1417,7 +1448,7 @@
       <c r="B7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="24" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="22"/>
@@ -1433,7 +1464,7 @@
       <c r="B8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="24" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="22"/>
@@ -1449,7 +1480,7 @@
       <c r="B9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="22"/>
@@ -1461,16 +1492,16 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="M9" s="17"/>
-      <c r="N9" s="20" t="s">
+      <c r="N9" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="O9" s="20"/>
+      <c r="O9" s="27"/>
     </row>
     <row r="10" spans="2:15" ht="15.75">
       <c r="B10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="24" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="22"/>
@@ -1482,16 +1513,16 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="M10" s="18"/>
-      <c r="N10" s="20" t="s">
+      <c r="N10" s="27" t="s">
         <v>265</v>
       </c>
-      <c r="O10" s="20"/>
+      <c r="O10" s="27"/>
     </row>
     <row r="11" spans="2:15" ht="15.75">
       <c r="B11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="24" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="22"/>
@@ -1503,14 +1534,14 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="M11" s="19"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
     </row>
     <row r="12" spans="2:15" ht="15.75">
       <c r="B12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="24" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="22"/>
@@ -1521,12 +1552,17 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="O12" s="27"/>
     </row>
     <row r="13" spans="2:15" ht="15.75">
       <c r="B13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="22"/>
@@ -1542,7 +1578,7 @@
       <c r="B14" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="24" t="s">
         <v>40</v>
       </c>
       <c r="D14" s="22"/>
@@ -1558,7 +1594,7 @@
       <c r="B15" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="24" t="s">
         <v>42</v>
       </c>
       <c r="D15" s="22"/>
@@ -1574,7 +1610,7 @@
       <c r="B16" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="24" t="s">
         <v>43</v>
       </c>
       <c r="D16" s="22"/>
@@ -1590,7 +1626,7 @@
       <c r="B17" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="24" t="s">
         <v>45</v>
       </c>
       <c r="D17" s="22"/>
@@ -1606,10 +1642,10 @@
       <c r="B18" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="24"/>
+      <c r="D18" s="26"/>
       <c r="E18" s="5"/>
       <c r="F18" s="3">
         <v>1</v>
@@ -1622,10 +1658,10 @@
       <c r="B19" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="24"/>
+      <c r="D19" s="26"/>
       <c r="E19" s="5"/>
       <c r="F19" s="3">
         <v>2</v>
@@ -1638,7 +1674,7 @@
       <c r="B20" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="24" t="s">
         <v>50</v>
       </c>
       <c r="D20" s="22"/>
@@ -1654,7 +1690,7 @@
       <c r="B21" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="24" t="s">
         <v>52</v>
       </c>
       <c r="D21" s="22"/>
@@ -1670,7 +1706,7 @@
       <c r="B22" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="24" t="s">
         <v>54</v>
       </c>
       <c r="D22" s="22"/>
@@ -1686,7 +1722,7 @@
       <c r="B23" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="24" t="s">
         <v>56</v>
       </c>
       <c r="D23" s="22"/>
@@ -1702,7 +1738,7 @@
       <c r="B24" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="24" t="s">
         <v>58</v>
       </c>
       <c r="D24" s="22"/>
@@ -1715,10 +1751,10 @@
       <c r="I24" s="6"/>
     </row>
     <row r="25" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="24" t="s">
         <v>60</v>
       </c>
       <c r="D25" s="22"/>
@@ -1731,10 +1767,10 @@
       <c r="I25" s="6"/>
     </row>
     <row r="26" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="24" t="s">
         <v>62</v>
       </c>
       <c r="D26" s="22"/>
@@ -1747,10 +1783,10 @@
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="24" t="s">
         <v>64</v>
       </c>
       <c r="D27" s="22"/>
@@ -1763,10 +1799,10 @@
       <c r="I27" s="6"/>
     </row>
     <row r="28" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="24" t="s">
         <v>66</v>
       </c>
       <c r="D28" s="22"/>
@@ -1779,10 +1815,10 @@
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="24" t="s">
         <v>68</v>
       </c>
       <c r="D29" s="22"/>
@@ -1795,10 +1831,10 @@
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="24" t="s">
         <v>70</v>
       </c>
       <c r="D30" s="22"/>
@@ -1814,7 +1850,7 @@
       <c r="B31" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="24" t="s">
         <v>72</v>
       </c>
       <c r="D31" s="22"/>
@@ -1830,7 +1866,7 @@
       <c r="B32" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="24" t="s">
         <v>74</v>
       </c>
       <c r="D32" s="22"/>
@@ -1846,7 +1882,7 @@
       <c r="B33" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="24" t="s">
         <v>76</v>
       </c>
       <c r="D33" s="22"/>
@@ -1862,7 +1898,7 @@
       <c r="B34" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="24" t="s">
         <v>78</v>
       </c>
       <c r="D34" s="22"/>
@@ -1878,7 +1914,7 @@
       <c r="B35" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="24" t="s">
         <v>80</v>
       </c>
       <c r="D35" s="22"/>
@@ -1891,10 +1927,10 @@
       <c r="I35" s="6"/>
     </row>
     <row r="36" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="24" t="s">
         <v>82</v>
       </c>
       <c r="D36" s="22"/>
@@ -1907,10 +1943,10 @@
       <c r="I36" s="6"/>
     </row>
     <row r="37" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="24" t="s">
         <v>84</v>
       </c>
       <c r="D37" s="22"/>
@@ -1923,10 +1959,10 @@
       <c r="I37" s="6"/>
     </row>
     <row r="38" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="24" t="s">
         <v>86</v>
       </c>
       <c r="D38" s="22"/>
@@ -1939,10 +1975,10 @@
       <c r="I38" s="6"/>
     </row>
     <row r="39" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="24" t="s">
         <v>88</v>
       </c>
       <c r="D39" s="22"/>
@@ -1955,10 +1991,10 @@
       <c r="I39" s="6"/>
     </row>
     <row r="40" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="24" t="s">
         <v>90</v>
       </c>
       <c r="D40" s="22"/>
@@ -1972,7 +2008,7 @@
     </row>
     <row r="41" spans="2:9" ht="15.75" customHeight="1">
       <c r="B41" s="8"/>
-      <c r="C41" s="21"/>
+      <c r="C41" s="24"/>
       <c r="D41" s="22"/>
       <c r="E41" s="6"/>
       <c r="F41" s="3"/>
@@ -1984,7 +2020,7 @@
       <c r="B42" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="24" t="s">
         <v>92</v>
       </c>
       <c r="D42" s="22"/>
@@ -1998,7 +2034,7 @@
     </row>
     <row r="43" spans="2:9" ht="15.75" customHeight="1">
       <c r="B43" s="8"/>
-      <c r="C43" s="21"/>
+      <c r="C43" s="24"/>
       <c r="D43" s="22"/>
       <c r="E43" s="6"/>
       <c r="F43" s="3"/>
@@ -2008,7 +2044,7 @@
     </row>
     <row r="44" spans="2:9" ht="15.75" customHeight="1">
       <c r="B44" s="8"/>
-      <c r="C44" s="21"/>
+      <c r="C44" s="24"/>
       <c r="D44" s="22"/>
       <c r="E44" s="6"/>
       <c r="F44" s="3"/>
@@ -2018,7 +2054,7 @@
     </row>
     <row r="45" spans="2:9" ht="15.75" customHeight="1">
       <c r="B45" s="8"/>
-      <c r="C45" s="21"/>
+      <c r="C45" s="24"/>
       <c r="D45" s="22"/>
       <c r="E45" s="6"/>
       <c r="F45" s="3"/>
@@ -3066,38 +3102,8 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
+  <mergeCells count="48">
+    <mergeCell ref="N12:O12"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="N10:O10"/>
     <mergeCell ref="N11:O11"/>
@@ -3114,6 +3120,37 @@
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -3157,53 +3194,53 @@
       <c r="C3" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
     </row>
     <row r="4" spans="3:23">
       <c r="C4" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
       <c r="I4" s="11"/>
       <c r="K4" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
       <c r="Q4" s="11"/>
       <c r="S4" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
     </row>
     <row r="5" spans="3:23">
       <c r="C5" s="1" t="s">

--- a/Formulacion.xlsx
+++ b/Formulacion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CETI\Proyecto\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6C6354-DAD6-444C-B48E-13196DC336A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5FBE9B-68D9-4B52-BBC8-1C38467AFA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Control-Incinerador PLASTIRAL" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="270">
   <si>
     <t>Formulacion Proyecto Mecatronico</t>
   </si>
@@ -217,21 +217,6 @@
     <t>Para medir la temperatura del incinerador</t>
   </si>
   <si>
-    <t>Electroválvula para aire a presión</t>
-  </si>
-  <si>
-    <t>Paso de aire a presion al aspersor: https://articulo.mercadolibre.com.mx/MLM-617338030-24v-dc-12-inch-laton-solenoide-electrovalvula-aire-agua-gas-_JM#polycard_client=search-nordic&amp;position=18&amp;search_layout=grid&amp;type=item&amp;tracking_id=3532481e-8c51-4af7-9e0f-37132fca5571</t>
-  </si>
-  <si>
-    <t>Electroválvula para agua</t>
-  </si>
-  <si>
-    <t>Paso de agua al aspersor: https://articulo.mercadolibre.com.mx/MLM-617338030-24v-dc-12-inch-laton-solenoide-electrovalvula-aire-agua-gas-_JM#polycard_client=search-nordic&amp;position=18&amp;search_layout=grid&amp;type=item&amp;tracking_id=3532481e-8c51-4af7-9e0f-37132fca5571</t>
-  </si>
-  <si>
-    <t>Electroválvula para gas</t>
-  </si>
-  <si>
     <t>Paso de gas al quemador: https://articulo.mercadolibre.com.mx/MLM-617338030-24v-dc-12-inch-laton-solenoide-electrovalvula-aire-agua-gas-_JM#polycard_client=search-nordic&amp;position=18&amp;search_layout=grid&amp;type=item&amp;tracking_id=3532481e-8c51-4af7-9e0f-37132fca5571</t>
   </si>
   <si>
@@ -274,9 +259,6 @@
     <t>Alarma sonora o visual</t>
   </si>
   <si>
-    <t xml:space="preserve">Indica algun fallo en el proceso </t>
-  </si>
-  <si>
     <t>Motor eléctrico - Requiere variador</t>
   </si>
   <si>
@@ -830,6 +812,30 @@
   </si>
   <si>
     <t>PENDIENTE DIAGRAMA</t>
+  </si>
+  <si>
+    <t>Para activar al mismo tiempo aire y agua, y la alarma visual y sonora: https://articulo.mercadolibre.com.mx/MLM-3103497556-2pzs-relevador-de-14-pines-y-24vdc-con-base-_JM#polycard_client=search-nordic&amp;position=28&amp;search_layout=stack&amp;type=item&amp;tracking_id=c2a275bc-bd1e-4d37-b6ba-cefdb44b75f7</t>
+  </si>
+  <si>
+    <t>Reley 110V AC</t>
+  </si>
+  <si>
+    <t>Paso de aire a presion al aspersor: https://articulo.mercadolibre.com.mx/MLM-2740303304-electrovalvula-valvula-agua-abierta-12-pulg-solenoide-110v-_JM#polycard_client=search-nordic&amp;position=29&amp;search_layout=grid&amp;type=item&amp;tracking_id=7434382c-4240-48ff-b109-d0836621d16f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paso de agua al aspersor: </t>
+  </si>
+  <si>
+    <t>Electroválvula para aire a presión (110V)</t>
+  </si>
+  <si>
+    <t>Electroválvula para agua (110V)</t>
+  </si>
+  <si>
+    <t>Electroválvula para gas (24V DC)</t>
+  </si>
+  <si>
+    <t>Indica algun fallo en el proceso: https://articulo.mercadolibre.com.mx/MLM-2379876388-zumbador-led-24v-indicador-industrial-lampara-buzzer-rojo-_JM#polycard_client=search-nordic&amp;position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=10641177-2a37-4d68-982f-c89d9920c37e</t>
   </si>
 </sst>
 </file>
@@ -1060,6 +1066,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1079,16 +1095,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1306,14 +1312,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" customWidth="1"/>
     <col min="3" max="3" width="8.140625" customWidth="1"/>
     <col min="4" max="4" width="70.28515625" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
@@ -1329,28 +1335,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="30" customHeight="1">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="26"/>
     </row>
     <row r="3" spans="2:15" ht="33.75" customHeight="1">
-      <c r="B3" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="22"/>
+      <c r="B3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="26"/>
       <c r="M3" s="15" t="s">
         <v>2</v>
       </c>
@@ -1365,10 +1371,10 @@
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="22"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1398,10 +1404,10 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="22"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="5"/>
       <c r="F5" s="3">
         <v>1</v>
@@ -1420,13 +1426,13 @@
       </c>
     </row>
     <row r="6" spans="2:15" ht="28.5" customHeight="1">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="22"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="5"/>
       <c r="F6" s="3">
         <v>1</v>
@@ -1448,10 +1454,10 @@
       <c r="B7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="22"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="5"/>
       <c r="F7" s="3" t="s">
         <v>25</v>
@@ -1464,10 +1470,10 @@
       <c r="B8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="22"/>
+      <c r="D8" s="26"/>
       <c r="E8" s="5"/>
       <c r="F8" s="3" t="s">
         <v>25</v>
@@ -1480,10 +1486,10 @@
       <c r="B9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="22"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="5"/>
       <c r="F9" s="3">
         <v>2</v>
@@ -1492,19 +1498,19 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="M9" s="17"/>
-      <c r="N9" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="O9" s="27"/>
+      <c r="N9" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="O9" s="31"/>
     </row>
     <row r="10" spans="2:15" ht="15.75">
       <c r="B10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="22"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="5"/>
       <c r="F10" s="3">
         <v>1</v>
@@ -1513,19 +1519,19 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="M10" s="18"/>
-      <c r="N10" s="27" t="s">
-        <v>265</v>
-      </c>
-      <c r="O10" s="27"/>
+      <c r="N10" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="O10" s="31"/>
     </row>
     <row r="11" spans="2:15" ht="15.75">
       <c r="B11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="22"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="5"/>
       <c r="F11" s="3">
         <v>1</v>
@@ -1534,17 +1540,17 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="M11" s="19"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
     </row>
     <row r="12" spans="2:15" ht="15.75">
       <c r="B12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="22"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="5"/>
       <c r="F12" s="3" t="s">
         <v>36</v>
@@ -1552,20 +1558,20 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="27" t="s">
-        <v>267</v>
-      </c>
-      <c r="O12" s="27"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="O12" s="31"/>
     </row>
     <row r="13" spans="2:15" ht="15.75">
       <c r="B13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="22"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="5"/>
       <c r="F13" s="3" t="s">
         <v>36</v>
@@ -1578,10 +1584,10 @@
       <c r="B14" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="22"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="5"/>
       <c r="F14" s="3">
         <v>3</v>
@@ -1594,10 +1600,10 @@
       <c r="B15" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="22"/>
+      <c r="D15" s="26"/>
       <c r="E15" s="5"/>
       <c r="F15" s="3">
         <v>1</v>
@@ -1610,10 +1616,10 @@
       <c r="B16" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="22"/>
+      <c r="D16" s="26"/>
       <c r="E16" s="5"/>
       <c r="F16" s="3">
         <v>1</v>
@@ -1626,10 +1632,10 @@
       <c r="B17" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="22"/>
+      <c r="D17" s="26"/>
       <c r="E17" s="5"/>
       <c r="F17" s="3">
         <v>1</v>
@@ -1642,10 +1648,10 @@
       <c r="B18" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="26"/>
+      <c r="D18" s="30"/>
       <c r="E18" s="5"/>
       <c r="F18" s="3">
         <v>1</v>
@@ -1656,12 +1662,12 @@
     </row>
     <row r="19" spans="2:9" ht="15.75">
       <c r="B19" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C19" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="26"/>
+      <c r="D19" s="30"/>
       <c r="E19" s="5"/>
       <c r="F19" s="3">
         <v>2</v>
@@ -1674,10 +1680,10 @@
       <c r="B20" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="22"/>
+      <c r="D20" s="26"/>
       <c r="E20" s="6"/>
       <c r="F20" s="3">
         <v>1</v>
@@ -1690,10 +1696,10 @@
       <c r="B21" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="22"/>
+      <c r="D21" s="26"/>
       <c r="E21" s="6"/>
       <c r="F21" s="3">
         <v>3</v>
@@ -1706,10 +1712,10 @@
       <c r="B22" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="22"/>
+      <c r="D22" s="26"/>
       <c r="E22" s="6"/>
       <c r="F22" s="3">
         <v>1</v>
@@ -1722,10 +1728,10 @@
       <c r="B23" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="22"/>
+      <c r="D23" s="26"/>
       <c r="E23" s="6"/>
       <c r="F23" s="3">
         <v>2</v>
@@ -1738,10 +1744,10 @@
       <c r="B24" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="22"/>
+      <c r="D24" s="26"/>
       <c r="E24" s="6"/>
       <c r="F24" s="3">
         <v>2</v>
@@ -1751,13 +1757,13 @@
       <c r="I24" s="6"/>
     </row>
     <row r="25" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="22"/>
+      <c r="D25" s="26"/>
       <c r="E25" s="6"/>
       <c r="F25" s="3">
         <v>1</v>
@@ -1767,13 +1773,13 @@
       <c r="I25" s="6"/>
     </row>
     <row r="26" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="22"/>
+      <c r="D26" s="26"/>
       <c r="E26" s="6"/>
       <c r="F26" s="3">
         <v>1</v>
@@ -1783,13 +1789,13 @@
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B27" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="22"/>
+      <c r="B27" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="D27" s="26"/>
       <c r="E27" s="6"/>
       <c r="F27" s="3">
         <v>1</v>
@@ -1799,13 +1805,13 @@
       <c r="I27" s="6"/>
     </row>
     <row r="28" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B28" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="22"/>
+      <c r="B28" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="D28" s="26"/>
       <c r="E28" s="6"/>
       <c r="F28" s="3">
         <v>1</v>
@@ -1815,13 +1821,13 @@
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B29" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="22"/>
+      <c r="B29" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="26"/>
       <c r="E29" s="6"/>
       <c r="F29" s="3">
         <v>1</v>
@@ -1831,13 +1837,13 @@
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B30" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="22"/>
+      <c r="B30" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="26"/>
       <c r="E30" s="6"/>
       <c r="F30" s="3">
         <v>1</v>
@@ -1848,12 +1854,12 @@
     </row>
     <row r="31" spans="2:9" ht="15.75" customHeight="1">
       <c r="B31" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" s="22"/>
+        <v>66</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="26"/>
       <c r="E31" s="6"/>
       <c r="F31" s="3">
         <v>1</v>
@@ -1864,12 +1870,12 @@
     </row>
     <row r="32" spans="2:9" ht="15.75" customHeight="1">
       <c r="B32" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="22"/>
+        <v>68</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="26"/>
       <c r="E32" s="6"/>
       <c r="F32" s="3">
         <v>1</v>
@@ -1880,12 +1886,12 @@
     </row>
     <row r="33" spans="2:9" ht="15.75" customHeight="1">
       <c r="B33" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" s="22"/>
+        <v>70</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="26"/>
       <c r="E33" s="6"/>
       <c r="F33" s="3">
         <v>1</v>
@@ -1896,12 +1902,12 @@
     </row>
     <row r="34" spans="2:9" ht="15.75" customHeight="1">
       <c r="B34" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34" s="22"/>
+        <v>72</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="26"/>
       <c r="E34" s="6"/>
       <c r="F34" s="3">
         <v>1</v>
@@ -1912,12 +1918,12 @@
     </row>
     <row r="35" spans="2:9" ht="15.75" customHeight="1">
       <c r="B35" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="D35" s="22"/>
+        <v>74</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="26"/>
       <c r="E35" s="6"/>
       <c r="F35" s="3">
         <v>1</v>
@@ -1927,13 +1933,13 @@
       <c r="I35" s="6"/>
     </row>
     <row r="36" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B36" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="D36" s="22"/>
+      <c r="B36" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="D36" s="26"/>
       <c r="E36" s="6"/>
       <c r="F36" s="3">
         <v>1</v>
@@ -1943,13 +1949,13 @@
       <c r="I36" s="6"/>
     </row>
     <row r="37" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B37" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" s="22"/>
+      <c r="B37" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="26"/>
       <c r="E37" s="6"/>
       <c r="F37" s="3">
         <v>1</v>
@@ -1959,13 +1965,13 @@
       <c r="I37" s="6"/>
     </row>
     <row r="38" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B38" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" s="22"/>
+      <c r="B38" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="26"/>
       <c r="E38" s="6"/>
       <c r="F38" s="3">
         <v>1</v>
@@ -1975,13 +1981,13 @@
       <c r="I38" s="6"/>
     </row>
     <row r="39" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B39" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="D39" s="22"/>
+      <c r="B39" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" s="26"/>
       <c r="E39" s="6"/>
       <c r="F39" s="3">
         <v>1</v>
@@ -1991,13 +1997,13 @@
       <c r="I39" s="6"/>
     </row>
     <row r="40" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B40" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="22"/>
+      <c r="B40" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" s="26"/>
       <c r="E40" s="6"/>
       <c r="F40" s="3">
         <v>1</v>
@@ -2007,23 +2013,29 @@
       <c r="I40" s="6"/>
     </row>
     <row r="41" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B41" s="8"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="22"/>
+      <c r="B41" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="D41" s="26"/>
       <c r="E41" s="6"/>
-      <c r="F41" s="3"/>
+      <c r="F41" s="3">
+        <v>2</v>
+      </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
     </row>
     <row r="42" spans="2:9" ht="15.75" customHeight="1">
       <c r="B42" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="D42" s="22"/>
+        <v>85</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" s="26"/>
       <c r="E42" s="6"/>
       <c r="F42" s="3">
         <v>1</v>
@@ -2034,8 +2046,8 @@
     </row>
     <row r="43" spans="2:9" ht="15.75" customHeight="1">
       <c r="B43" s="8"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="22"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="26"/>
       <c r="E43" s="6"/>
       <c r="F43" s="3"/>
       <c r="G43" s="6"/>
@@ -2044,8 +2056,8 @@
     </row>
     <row r="44" spans="2:9" ht="15.75" customHeight="1">
       <c r="B44" s="8"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="22"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="26"/>
       <c r="E44" s="6"/>
       <c r="F44" s="3"/>
       <c r="G44" s="6"/>
@@ -2054,8 +2066,8 @@
     </row>
     <row r="45" spans="2:9" ht="15.75" customHeight="1">
       <c r="B45" s="8"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="22"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="26"/>
       <c r="E45" s="6"/>
       <c r="F45" s="3"/>
       <c r="G45" s="6"/>
@@ -3108,14 +3120,6 @@
     <mergeCell ref="N10:O10"/>
     <mergeCell ref="N11:O11"/>
     <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
@@ -3127,6 +3131,14 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
@@ -3191,60 +3203,60 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:23">
-      <c r="C3" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
+      <c r="C3" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
     </row>
     <row r="4" spans="3:23">
-      <c r="C4" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
+      <c r="C4" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
       <c r="I4" s="11"/>
-      <c r="K4" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
+      <c r="K4" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
       <c r="Q4" s="11"/>
-      <c r="S4" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
+      <c r="S4" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
     </row>
     <row r="5" spans="3:23">
       <c r="C5" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
@@ -3253,19 +3265,19 @@
         <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>8</v>
@@ -3274,28 +3286,28 @@
         <v>7</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="W5" s="1" t="s">
         <v>6</v>
@@ -3303,25 +3315,25 @@
     </row>
     <row r="6" spans="3:23">
       <c r="C6" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
       </c>
       <c r="F6" s="12"/>
       <c r="K6" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="L6" s="1">
         <v>2</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="3:23">
       <c r="C7" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
@@ -3330,7 +3342,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G7" s="13">
         <v>45722</v>
@@ -3338,7 +3350,7 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="K7" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="L7" s="1">
         <v>5</v>
@@ -3347,12 +3359,12 @@
         <v>1</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="3:23">
       <c r="C8" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
@@ -3361,7 +3373,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G8" s="13">
         <v>45722</v>
@@ -3369,43 +3381,43 @@
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="K8" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="L8" s="1">
         <v>4</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="3:23">
       <c r="C9" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>
       </c>
       <c r="F9" s="12"/>
       <c r="K9" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="L9" s="1">
         <v>4</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="3:23">
       <c r="C10" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D10" s="1">
         <v>5</v>
       </c>
       <c r="F10" s="12"/>
       <c r="K10" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L10" s="1">
         <v>3</v>
@@ -3414,21 +3426,21 @@
         <v>1</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="3:23" ht="30">
       <c r="C11" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D11" s="1">
         <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G11" s="13">
         <v>45722</v>
@@ -3436,36 +3448,36 @@
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="K11" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="L11" s="1">
         <v>4</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="3:23">
       <c r="C12" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D12" s="1">
         <v>3</v>
       </c>
       <c r="F12" s="12"/>
       <c r="K12" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="L12" s="1">
         <v>2</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="3:23" ht="30">
       <c r="C13" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D13" s="1">
         <v>5</v>
@@ -3474,7 +3486,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G13" s="13">
         <v>45722</v>
@@ -3482,61 +3494,61 @@
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="K13" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="L13" s="1">
         <v>1</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="3:23">
       <c r="C14" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D14" s="1">
         <v>3</v>
       </c>
       <c r="F14" s="12"/>
       <c r="K14" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="L14" s="1">
         <v>1</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="3:23">
       <c r="C15" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="12"/>
       <c r="K15" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="L15" s="1">
         <v>4</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="3:23">
       <c r="C16" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
       <c r="F16" s="12"/>
       <c r="K16" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="L16" s="1">
         <v>4</v>
@@ -3545,19 +3557,19 @@
         <v>1</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="3:13">
       <c r="C17" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D17" s="1">
         <v>3</v>
       </c>
       <c r="F17" s="12"/>
       <c r="K17" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="L17" s="1">
         <v>5</v>
@@ -3568,14 +3580,14 @@
     </row>
     <row r="18" spans="3:13">
       <c r="C18" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="12"/>
       <c r="K18" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="L18" s="1">
         <v>1</v>
@@ -3583,7 +3595,7 @@
     </row>
     <row r="19" spans="3:13">
       <c r="C19" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D19" s="1">
         <v>3</v>
@@ -3592,7 +3604,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G19" s="13">
         <v>45722</v>
@@ -3600,7 +3612,7 @@
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="K19" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="L19" s="1">
         <v>4</v>
@@ -3608,14 +3620,14 @@
     </row>
     <row r="20" spans="3:13">
       <c r="C20" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D20" s="1">
         <v>3</v>
       </c>
       <c r="F20" s="12"/>
       <c r="K20" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="L20" s="1">
         <v>4</v>
@@ -3623,14 +3635,14 @@
     </row>
     <row r="21" spans="3:13" ht="15.75" customHeight="1">
       <c r="C21" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D21" s="1">
         <v>3</v>
       </c>
       <c r="F21" s="12"/>
       <c r="K21" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="L21" s="1">
         <v>4</v>
@@ -3638,14 +3650,14 @@
     </row>
     <row r="22" spans="3:13" ht="15.75" customHeight="1">
       <c r="C22" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
       </c>
       <c r="F22" s="12"/>
       <c r="K22" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="L22" s="1">
         <v>4</v>
@@ -3653,14 +3665,14 @@
     </row>
     <row r="23" spans="3:13" ht="15.75" customHeight="1">
       <c r="C23" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
       </c>
       <c r="F23" s="12"/>
       <c r="K23" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="L23" s="1">
         <v>1</v>
@@ -3668,7 +3680,7 @@
     </row>
     <row r="24" spans="3:13" ht="15.75" customHeight="1">
       <c r="C24" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D24" s="1">
         <v>2</v>
@@ -3677,7 +3689,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G24" s="13">
         <v>45722</v>
@@ -3685,7 +3697,7 @@
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
       <c r="K24" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="L24" s="1">
         <v>3</v>
@@ -3693,14 +3705,14 @@
     </row>
     <row r="25" spans="3:13" ht="15.75" customHeight="1">
       <c r="C25" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D25" s="1">
         <v>5</v>
       </c>
       <c r="F25" s="12"/>
       <c r="K25" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="L25" s="1">
         <v>4</v>
@@ -3711,14 +3723,14 @@
     </row>
     <row r="26" spans="3:13" ht="15.75" customHeight="1">
       <c r="C26" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D26" s="1">
         <v>3</v>
       </c>
       <c r="F26" s="12"/>
       <c r="K26" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="L26" s="1">
         <v>1</v>
@@ -3726,14 +3738,14 @@
     </row>
     <row r="27" spans="3:13" ht="15.75" customHeight="1">
       <c r="C27" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
       </c>
       <c r="F27" s="12"/>
       <c r="K27" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="L27" s="1">
         <v>1</v>
@@ -3741,14 +3753,14 @@
     </row>
     <row r="28" spans="3:13" ht="15.75" customHeight="1">
       <c r="C28" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D28" s="1">
         <v>2</v>
       </c>
       <c r="F28" s="12"/>
       <c r="K28" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="L28" s="1">
         <v>4</v>
@@ -3756,14 +3768,14 @@
     </row>
     <row r="29" spans="3:13" ht="15.75" customHeight="1">
       <c r="C29" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
       </c>
       <c r="F29" s="12"/>
       <c r="K29" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="L29" s="1">
         <v>1</v>
@@ -3771,14 +3783,14 @@
     </row>
     <row r="30" spans="3:13" ht="15.75" customHeight="1">
       <c r="C30" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D30" s="1">
         <v>5</v>
       </c>
       <c r="F30" s="12"/>
       <c r="K30" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L30" s="1">
         <v>1</v>
@@ -3786,14 +3798,14 @@
     </row>
     <row r="31" spans="3:13" ht="15.75" customHeight="1">
       <c r="C31" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D31" s="1">
         <v>3</v>
       </c>
       <c r="F31" s="12"/>
       <c r="K31" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L31" s="1">
         <v>4</v>
@@ -3801,14 +3813,14 @@
     </row>
     <row r="32" spans="3:13" ht="15.75" customHeight="1">
       <c r="C32" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D32" s="1">
         <v>5</v>
       </c>
       <c r="F32" s="12"/>
       <c r="K32" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="L32" s="1">
         <v>1</v>
@@ -3816,14 +3828,14 @@
     </row>
     <row r="33" spans="3:14" ht="15.75" customHeight="1">
       <c r="C33" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D33" s="1">
         <v>2</v>
       </c>
       <c r="F33" s="12"/>
       <c r="K33" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="L33" s="1">
         <v>4</v>
@@ -3834,14 +3846,14 @@
     </row>
     <row r="34" spans="3:14" ht="15.75" customHeight="1">
       <c r="C34" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
       </c>
       <c r="F34" s="12"/>
       <c r="K34" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="L34" s="1">
         <v>4</v>
@@ -3852,14 +3864,14 @@
     </row>
     <row r="35" spans="3:14" ht="15.75" customHeight="1">
       <c r="C35" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D35" s="1">
         <v>3</v>
       </c>
       <c r="F35" s="12"/>
       <c r="K35" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="L35" s="1">
         <v>1</v>
@@ -3867,14 +3879,14 @@
     </row>
     <row r="36" spans="3:14" ht="15.75" customHeight="1">
       <c r="C36" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
       </c>
       <c r="F36" s="12"/>
       <c r="K36" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="L36" s="1">
         <v>1</v>
@@ -3882,14 +3894,14 @@
     </row>
     <row r="37" spans="3:14" ht="15.75" customHeight="1">
       <c r="C37" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D37" s="1">
         <v>5</v>
       </c>
       <c r="F37" s="12"/>
       <c r="K37" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="L37" s="1">
         <v>3</v>
@@ -3897,7 +3909,7 @@
     </row>
     <row r="38" spans="3:14" ht="15.75" customHeight="1">
       <c r="C38" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D38" s="1">
         <v>5</v>
@@ -3906,7 +3918,7 @@
         <v>2</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G38" s="13">
         <v>45722</v>
@@ -3914,7 +3926,7 @@
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
       <c r="K38" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="L38" s="1">
         <v>1</v>
@@ -3922,7 +3934,7 @@
     </row>
     <row r="39" spans="3:14" ht="15.75" customHeight="1">
       <c r="C39" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D39" s="1">
         <v>5</v>
@@ -3931,7 +3943,7 @@
         <v>3</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G39" s="13">
         <v>45722</v>
@@ -3939,25 +3951,25 @@
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
       <c r="K39" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="L39" s="14" t="s">
         <v>25</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="3:14" ht="15.75" customHeight="1">
       <c r="C40" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D40" s="1">
         <v>5</v>
       </c>
       <c r="F40" s="12"/>
       <c r="K40" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="L40" s="1">
         <v>4</v>
@@ -3965,16 +3977,16 @@
     </row>
     <row r="41" spans="3:14" ht="15.75" customHeight="1">
       <c r="C41" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D41" s="1">
         <v>3</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G41" s="13">
         <v>45722</v>
@@ -3982,7 +3994,7 @@
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
       <c r="K41" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="L41" s="1">
         <v>2</v>
@@ -3990,14 +4002,14 @@
     </row>
     <row r="42" spans="3:14" ht="15.75" customHeight="1">
       <c r="C42" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
       </c>
       <c r="F42" s="12"/>
       <c r="K42" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="L42" s="1">
         <v>4</v>
@@ -4005,7 +4017,7 @@
     </row>
     <row r="43" spans="3:14" ht="15.75" customHeight="1">
       <c r="C43" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D43" s="1">
         <v>3</v>
@@ -4014,7 +4026,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G43" s="13">
         <v>45722</v>
@@ -4022,7 +4034,7 @@
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
       <c r="K43" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="L43" s="1">
         <v>4</v>
@@ -4033,14 +4045,14 @@
     </row>
     <row r="44" spans="3:14" ht="15.75" customHeight="1">
       <c r="C44" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D44" s="1">
         <v>3</v>
       </c>
       <c r="F44" s="12"/>
       <c r="K44" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="L44" s="1">
         <v>1</v>
@@ -4048,14 +4060,14 @@
     </row>
     <row r="45" spans="3:14" ht="15.75" customHeight="1">
       <c r="C45" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D45" s="1">
         <v>1</v>
       </c>
       <c r="F45" s="12"/>
       <c r="K45" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="L45" s="1">
         <v>1</v>
@@ -4063,14 +4075,14 @@
     </row>
     <row r="46" spans="3:14" ht="15.75" customHeight="1">
       <c r="C46" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
       </c>
       <c r="F46" s="12"/>
       <c r="K46" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="L46" s="1">
         <v>1</v>
@@ -4078,14 +4090,14 @@
     </row>
     <row r="47" spans="3:14" ht="15.75" customHeight="1">
       <c r="C47" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D47" s="1">
         <v>4</v>
       </c>
       <c r="F47" s="12"/>
       <c r="K47" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L47" s="1">
         <v>10</v>
@@ -4093,14 +4105,14 @@
     </row>
     <row r="48" spans="3:14" ht="15.75" customHeight="1">
       <c r="C48" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D48" s="1">
         <v>1</v>
       </c>
       <c r="F48" s="12"/>
       <c r="K48" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="L48" s="1">
         <v>4</v>
@@ -4108,14 +4120,14 @@
     </row>
     <row r="49" spans="3:12" ht="15.75" customHeight="1">
       <c r="C49" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D49" s="1">
         <v>1</v>
       </c>
       <c r="F49" s="12"/>
       <c r="K49" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="L49" s="1">
         <v>4</v>
@@ -4123,14 +4135,14 @@
     </row>
     <row r="50" spans="3:12" ht="15.75" customHeight="1">
       <c r="C50" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D50" s="1">
         <v>1</v>
       </c>
       <c r="F50" s="12"/>
       <c r="K50" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="L50" s="1">
         <v>1</v>
@@ -4138,14 +4150,14 @@
     </row>
     <row r="51" spans="3:12" ht="15.75" customHeight="1">
       <c r="C51" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D51" s="1">
         <v>1</v>
       </c>
       <c r="F51" s="12"/>
       <c r="K51" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="L51" s="14" t="s">
         <v>25</v>
@@ -4154,7 +4166,7 @@
     <row r="52" spans="3:12" ht="15.75" customHeight="1">
       <c r="F52" s="12"/>
       <c r="K52" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="L52" s="1">
         <v>1</v>
@@ -4163,7 +4175,7 @@
     <row r="53" spans="3:12" ht="15.75" customHeight="1">
       <c r="F53" s="12"/>
       <c r="K53" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="L53" s="1">
         <v>1</v>
@@ -4172,7 +4184,7 @@
     <row r="54" spans="3:12" ht="15.75" customHeight="1">
       <c r="F54" s="12"/>
       <c r="K54" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="L54" s="1">
         <v>1</v>
@@ -4181,7 +4193,7 @@
     <row r="55" spans="3:12" ht="15.75" customHeight="1">
       <c r="F55" s="12"/>
       <c r="K55" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="L55" s="1">
         <v>1</v>
@@ -4190,7 +4202,7 @@
     <row r="56" spans="3:12" ht="15.75" customHeight="1">
       <c r="F56" s="12"/>
       <c r="K56" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="L56" s="1">
         <v>1</v>
@@ -4199,7 +4211,7 @@
     <row r="57" spans="3:12" ht="15.75" customHeight="1">
       <c r="F57" s="12"/>
       <c r="K57" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="L57" s="1">
         <v>4</v>
@@ -4208,7 +4220,7 @@
     <row r="58" spans="3:12" ht="15.75" customHeight="1">
       <c r="F58" s="12"/>
       <c r="K58" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="L58" s="1">
         <v>4</v>
@@ -4217,7 +4229,7 @@
     <row r="59" spans="3:12" ht="15.75" customHeight="1">
       <c r="F59" s="12"/>
       <c r="K59" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="L59" s="1">
         <v>4</v>
@@ -4226,7 +4238,7 @@
     <row r="60" spans="3:12" ht="15.75" customHeight="1">
       <c r="F60" s="12"/>
       <c r="K60" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="L60" s="1">
         <v>4</v>
@@ -4235,7 +4247,7 @@
     <row r="61" spans="3:12" ht="15.75" customHeight="1">
       <c r="F61" s="12"/>
       <c r="K61" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="L61" s="1">
         <v>4</v>
@@ -4244,7 +4256,7 @@
     <row r="62" spans="3:12" ht="15.75" customHeight="1">
       <c r="F62" s="12"/>
       <c r="K62" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="L62" s="1">
         <v>4</v>
@@ -4253,7 +4265,7 @@
     <row r="63" spans="3:12" ht="15.75" customHeight="1">
       <c r="F63" s="12"/>
       <c r="K63" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="L63" s="1">
         <v>1</v>
@@ -4262,7 +4274,7 @@
     <row r="64" spans="3:12" ht="15.75" customHeight="1">
       <c r="F64" s="12"/>
       <c r="K64" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="L64" s="1">
         <v>1</v>
@@ -4271,7 +4283,7 @@
     <row r="65" spans="6:13" ht="15.75" customHeight="1">
       <c r="F65" s="12"/>
       <c r="K65" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="L65" s="1">
         <v>1</v>
@@ -4280,7 +4292,7 @@
     <row r="66" spans="6:13" ht="15.75" customHeight="1">
       <c r="F66" s="12"/>
       <c r="K66" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="L66" s="1">
         <v>3</v>
@@ -4292,7 +4304,7 @@
     <row r="67" spans="6:13" ht="15.75" customHeight="1">
       <c r="F67" s="12"/>
       <c r="K67" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="L67" s="1">
         <v>1</v>
@@ -4301,19 +4313,19 @@
     <row r="68" spans="6:13" ht="15.75" customHeight="1">
       <c r="F68" s="12"/>
       <c r="K68" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="L68" s="1">
         <v>4</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="69" spans="6:13" ht="15.75" customHeight="1">
       <c r="F69" s="12"/>
       <c r="K69" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="L69" s="1">
         <v>1</v>
@@ -4322,7 +4334,7 @@
     <row r="70" spans="6:13" ht="15.75" customHeight="1">
       <c r="F70" s="12"/>
       <c r="K70" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="L70" s="1">
         <v>1</v>
@@ -4331,7 +4343,7 @@
     <row r="71" spans="6:13" ht="15.75" customHeight="1">
       <c r="F71" s="12"/>
       <c r="K71" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="L71" s="1">
         <v>1</v>
@@ -4340,7 +4352,7 @@
     <row r="72" spans="6:13" ht="15.75" customHeight="1">
       <c r="F72" s="12"/>
       <c r="K72" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="L72" s="1">
         <v>4</v>
@@ -4349,7 +4361,7 @@
     <row r="73" spans="6:13" ht="15.75" customHeight="1">
       <c r="F73" s="12"/>
       <c r="K73" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="L73" s="1">
         <v>4</v>
@@ -4358,7 +4370,7 @@
     <row r="74" spans="6:13" ht="15.75" customHeight="1">
       <c r="F74" s="12"/>
       <c r="K74" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="L74" s="1">
         <v>4</v>
@@ -4367,7 +4379,7 @@
     <row r="75" spans="6:13" ht="15.75" customHeight="1">
       <c r="F75" s="12"/>
       <c r="K75" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="L75" s="1">
         <v>12</v>
@@ -4376,7 +4388,7 @@
     <row r="76" spans="6:13" ht="15.75" customHeight="1">
       <c r="F76" s="12"/>
       <c r="K76" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="L76" s="1">
         <v>4</v>
@@ -4385,7 +4397,7 @@
     <row r="77" spans="6:13" ht="15.75" customHeight="1">
       <c r="F77" s="12"/>
       <c r="K77" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="L77" s="1" t="s">
         <v>25</v>
@@ -4394,7 +4406,7 @@
     <row r="78" spans="6:13" ht="15.75" customHeight="1">
       <c r="F78" s="12"/>
       <c r="K78" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="L78" s="1" t="s">
         <v>25</v>
@@ -4403,7 +4415,7 @@
     <row r="79" spans="6:13" ht="15.75" customHeight="1">
       <c r="F79" s="12"/>
       <c r="K79" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="L79" s="1">
         <v>7</v>
@@ -4412,19 +4424,19 @@
     <row r="80" spans="6:13" ht="15.75" customHeight="1">
       <c r="F80" s="12"/>
       <c r="K80" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="L80" s="1">
         <v>3</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="81" spans="6:13" ht="15.75" customHeight="1">
       <c r="F81" s="12"/>
       <c r="K81" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="L81" s="1">
         <v>1</v>
@@ -4433,7 +4445,7 @@
     <row r="82" spans="6:13" ht="15.75" customHeight="1">
       <c r="F82" s="12"/>
       <c r="K82" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="L82" s="1">
         <v>1</v>
@@ -4442,7 +4454,7 @@
     <row r="83" spans="6:13" ht="15.75" customHeight="1">
       <c r="F83" s="12"/>
       <c r="K83" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="L83" s="1">
         <v>1</v>
@@ -4451,7 +4463,7 @@
     <row r="84" spans="6:13" ht="15.75" customHeight="1">
       <c r="F84" s="12"/>
       <c r="K84" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="L84" s="1">
         <v>1</v>
@@ -4460,7 +4472,7 @@
     <row r="85" spans="6:13" ht="15.75" customHeight="1">
       <c r="F85" s="12"/>
       <c r="K85" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="L85" s="1" t="s">
         <v>25</v>
@@ -4469,7 +4481,7 @@
     <row r="86" spans="6:13" ht="15.75" customHeight="1">
       <c r="F86" s="12"/>
       <c r="K86" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="L86" s="1">
         <v>1</v>
@@ -4478,7 +4490,7 @@
     <row r="87" spans="6:13" ht="15.75" customHeight="1">
       <c r="F87" s="12"/>
       <c r="K87" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="L87" s="1">
         <v>1</v>
@@ -4487,7 +4499,7 @@
     <row r="88" spans="6:13" ht="15.75" customHeight="1">
       <c r="F88" s="12"/>
       <c r="K88" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="L88" s="1">
         <v>1</v>
@@ -4496,7 +4508,7 @@
     <row r="89" spans="6:13" ht="15.75" customHeight="1">
       <c r="F89" s="12"/>
       <c r="K89" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="L89" s="1">
         <v>3</v>
@@ -4505,7 +4517,7 @@
     <row r="90" spans="6:13" ht="15.75" customHeight="1">
       <c r="F90" s="12"/>
       <c r="K90" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L90" s="1">
         <v>3</v>
@@ -4514,7 +4526,7 @@
     <row r="91" spans="6:13" ht="15.75" customHeight="1">
       <c r="F91" s="12"/>
       <c r="K91" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="L91" s="1">
         <v>6</v>
@@ -4526,7 +4538,7 @@
     <row r="92" spans="6:13" ht="15.75" customHeight="1">
       <c r="F92" s="12"/>
       <c r="K92" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="L92" s="1">
         <v>2</v>
@@ -4535,7 +4547,7 @@
     <row r="93" spans="6:13" ht="15.75" customHeight="1">
       <c r="F93" s="12"/>
       <c r="K93" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="L93" s="1">
         <v>1</v>
@@ -4544,7 +4556,7 @@
     <row r="94" spans="6:13" ht="15.75" customHeight="1">
       <c r="F94" s="12"/>
       <c r="K94" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="L94" s="1">
         <v>1</v>
@@ -4553,7 +4565,7 @@
     <row r="95" spans="6:13" ht="15.75" customHeight="1">
       <c r="F95" s="12"/>
       <c r="K95" s="1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="L95" s="1">
         <v>4</v>
@@ -4562,7 +4574,7 @@
     <row r="96" spans="6:13" ht="15.75" customHeight="1">
       <c r="F96" s="12"/>
       <c r="K96" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="L96" s="1">
         <v>1</v>
@@ -4571,7 +4583,7 @@
     <row r="97" spans="6:13" ht="15.75" customHeight="1">
       <c r="F97" s="12"/>
       <c r="K97" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="L97" s="1">
         <v>4</v>
@@ -4580,7 +4592,7 @@
     <row r="98" spans="6:13" ht="15.75" customHeight="1">
       <c r="F98" s="12"/>
       <c r="K98" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="L98" s="1">
         <v>4</v>
@@ -4589,7 +4601,7 @@
     <row r="99" spans="6:13" ht="15.75" customHeight="1">
       <c r="F99" s="12"/>
       <c r="K99" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="L99" s="1" t="s">
         <v>25</v>
@@ -4598,7 +4610,7 @@
     <row r="100" spans="6:13" ht="15.75" customHeight="1">
       <c r="F100" s="12"/>
       <c r="K100" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="L100" s="1">
         <v>1</v>
@@ -4606,7 +4618,7 @@
     </row>
     <row r="101" spans="6:13" ht="15.75" customHeight="1">
       <c r="K101" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="L101" s="1">
         <v>4</v>
@@ -4614,7 +4626,7 @@
     </row>
     <row r="102" spans="6:13" ht="15.75" customHeight="1">
       <c r="K102" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="L102" s="1">
         <v>1</v>
@@ -4622,7 +4634,7 @@
     </row>
     <row r="103" spans="6:13" ht="15.75" customHeight="1">
       <c r="K103" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="L103" s="1">
         <v>5</v>

--- a/Formulacion.xlsx
+++ b/Formulacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CETI\Proyecto\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5FBE9B-68D9-4B52-BBC8-1C38467AFA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4ADEE4-B681-48CC-8E7D-43CEB14C9D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="271">
   <si>
     <t>Formulacion Proyecto Mecatronico</t>
   </si>
@@ -70,9 +70,6 @@
     <t>DVP-20SX2</t>
   </si>
   <si>
-    <t>10k</t>
-  </si>
-  <si>
     <t xml:space="preserve">PLC </t>
   </si>
   <si>
@@ -154,12 +151,6 @@
     <t xml:space="preserve">Interruptores termomagneticos </t>
   </si>
   <si>
-    <t>Necesitamos 1 de 1 polo para controlar y proteger 127v alterna</t>
-  </si>
-  <si>
-    <t>Necesitamos 1 de 1 polo para controlar y proteger 24v directa</t>
-  </si>
-  <si>
     <t>Interruptor principal</t>
   </si>
   <si>
@@ -836,6 +827,18 @@
   </si>
   <si>
     <t>Indica algun fallo en el proceso: https://articulo.mercadolibre.com.mx/MLM-2379876388-zumbador-led-24v-indicador-industrial-lampara-buzzer-rojo-_JM#polycard_client=search-nordic&amp;position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=10641177-2a37-4d68-982f-c89d9920c37e</t>
+  </si>
+  <si>
+    <t>6.5k</t>
+  </si>
+  <si>
+    <t>Necesitamos 1 de 1 polo para controlar y proteger 12v directa, C2</t>
+  </si>
+  <si>
+    <t>Necesitamos 1 de 1 polo para controlar y proteger 24v directa, C6</t>
+  </si>
+  <si>
+    <t>Necesitamos 1 de 1 polo para controlar y proteger 127v alterna, C10</t>
   </si>
 </sst>
 </file>
@@ -1076,21 +1079,21 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1310,10 +1313,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:O1000"/>
+  <dimension ref="B2:O1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -1335,27 +1338,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="30" customHeight="1">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
       <c r="I2" s="26"/>
     </row>
     <row r="3" spans="2:15" ht="33.75" customHeight="1">
-      <c r="B3" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
+      <c r="B3" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
       <c r="I3" s="26"/>
       <c r="M3" s="15" t="s">
         <v>2</v>
@@ -1371,7 +1374,7 @@
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="29" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="26"/>
@@ -1397,15 +1400,15 @@
         <v>13</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>14</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="33.75" customHeight="1">
       <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="31" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>16</v>
       </c>
       <c r="D5" s="26"/>
       <c r="E5" s="5"/>
@@ -1419,18 +1422,18 @@
         <v>12</v>
       </c>
       <c r="N5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="15" t="s">
         <v>17</v>
-      </c>
-      <c r="O5" s="15" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="28.5" customHeight="1">
       <c r="B6" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>20</v>
       </c>
       <c r="D6" s="26"/>
       <c r="E6" s="5"/>
@@ -1444,23 +1447,23 @@
         <v>12</v>
       </c>
       <c r="N6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="15" t="s">
         <v>21</v>
-      </c>
-      <c r="O6" s="15" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="15.75">
       <c r="B7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>24</v>
       </c>
       <c r="D7" s="26"/>
       <c r="E7" s="5"/>
       <c r="F7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -1468,15 +1471,15 @@
     </row>
     <row r="8" spans="2:15" ht="15.75">
       <c r="B8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>26</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>27</v>
       </c>
       <c r="D8" s="26"/>
       <c r="E8" s="5"/>
       <c r="F8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -1484,10 +1487,10 @@
     </row>
     <row r="9" spans="2:15" ht="15.75">
       <c r="B9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="25" t="s">
         <v>28</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>29</v>
       </c>
       <c r="D9" s="26"/>
       <c r="E9" s="5"/>
@@ -1498,17 +1501,17 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="M9" s="17"/>
-      <c r="N9" s="31" t="s">
-        <v>258</v>
-      </c>
-      <c r="O9" s="31"/>
+      <c r="N9" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="O9" s="24"/>
     </row>
     <row r="10" spans="2:15" ht="15.75">
       <c r="B10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="25" t="s">
         <v>30</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>31</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="5"/>
@@ -1519,17 +1522,17 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="M10" s="18"/>
-      <c r="N10" s="31" t="s">
-        <v>259</v>
-      </c>
-      <c r="O10" s="31"/>
+      <c r="N10" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="O10" s="24"/>
     </row>
     <row r="11" spans="2:15" ht="15.75">
       <c r="B11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="25" t="s">
         <v>32</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>33</v>
       </c>
       <c r="D11" s="26"/>
       <c r="E11" s="5"/>
@@ -1540,41 +1543,41 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="M11" s="19"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
     </row>
     <row r="12" spans="2:15" ht="15.75">
       <c r="B12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="25" t="s">
         <v>34</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>35</v>
       </c>
       <c r="D12" s="26"/>
       <c r="E12" s="5"/>
       <c r="F12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="M12" s="23"/>
-      <c r="N12" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="O12" s="31"/>
+      <c r="N12" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="O12" s="24"/>
     </row>
     <row r="13" spans="2:15" ht="15.75">
       <c r="B13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="25" t="s">
         <v>37</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>38</v>
       </c>
       <c r="D13" s="26"/>
       <c r="E13" s="5"/>
       <c r="F13" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -1582,10 +1585,10 @@
     </row>
     <row r="14" spans="2:15" ht="15.75">
       <c r="B14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="25" t="s">
         <v>39</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>40</v>
       </c>
       <c r="D14" s="26"/>
       <c r="E14" s="5"/>
@@ -1598,10 +1601,10 @@
     </row>
     <row r="15" spans="2:15" ht="15.75">
       <c r="B15" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>270</v>
       </c>
       <c r="D15" s="26"/>
       <c r="E15" s="5"/>
@@ -1614,15 +1617,15 @@
     </row>
     <row r="16" spans="2:15" ht="15.75">
       <c r="B16" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>269</v>
       </c>
       <c r="D16" s="26"/>
       <c r="E16" s="5"/>
       <c r="F16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -1630,10 +1633,10 @@
     </row>
     <row r="17" spans="2:9" ht="15.75">
       <c r="B17" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>268</v>
       </c>
       <c r="D17" s="26"/>
       <c r="E17" s="5"/>
@@ -1646,12 +1649,12 @@
     </row>
     <row r="18" spans="2:9" ht="15.75">
       <c r="B18" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="30"/>
+        <v>41</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="26"/>
       <c r="E18" s="5"/>
       <c r="F18" s="3">
         <v>1</v>
@@ -1662,15 +1665,15 @@
     </row>
     <row r="19" spans="2:9" ht="15.75">
       <c r="B19" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="30"/>
+        <v>43</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="28"/>
       <c r="E19" s="5"/>
       <c r="F19" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -1678,63 +1681,63 @@
     </row>
     <row r="20" spans="2:9" ht="15.75">
       <c r="B20" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="6"/>
+        <v>257</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="28"/>
+      <c r="E20" s="5"/>
       <c r="F20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="2:9" ht="15.75" customHeight="1">
+    <row r="21" spans="2:9" ht="15.75">
       <c r="B21" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>52</v>
+        <v>46</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>47</v>
       </c>
       <c r="D21" s="26"/>
       <c r="E21" s="6"/>
       <c r="F21" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
     </row>
     <row r="22" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B22" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>54</v>
+      <c r="B22" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>49</v>
       </c>
       <c r="D22" s="26"/>
       <c r="E22" s="6"/>
       <c r="F22" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
     </row>
     <row r="23" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B23" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>56</v>
+      <c r="B23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>51</v>
       </c>
       <c r="D23" s="26"/>
       <c r="E23" s="6"/>
       <c r="F23" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -1742,10 +1745,10 @@
     </row>
     <row r="24" spans="2:9" ht="15.75" customHeight="1">
       <c r="B24" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>58</v>
+        <v>52</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>53</v>
       </c>
       <c r="D24" s="26"/>
       <c r="E24" s="6"/>
@@ -1757,16 +1760,16 @@
       <c r="I24" s="6"/>
     </row>
     <row r="25" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B25" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>60</v>
+      <c r="B25" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>55</v>
       </c>
       <c r="D25" s="26"/>
       <c r="E25" s="6"/>
       <c r="F25" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -1774,10 +1777,10 @@
     </row>
     <row r="26" spans="2:9" ht="15.75" customHeight="1">
       <c r="B26" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>62</v>
+        <v>56</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>57</v>
       </c>
       <c r="D26" s="26"/>
       <c r="E26" s="6"/>
@@ -1789,11 +1792,11 @@
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B27" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>264</v>
+      <c r="B27" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>59</v>
       </c>
       <c r="D27" s="26"/>
       <c r="E27" s="6"/>
@@ -1806,10 +1809,10 @@
     </row>
     <row r="28" spans="2:9" ht="15.75" customHeight="1">
       <c r="B28" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>265</v>
+        <v>263</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>261</v>
       </c>
       <c r="D28" s="26"/>
       <c r="E28" s="6"/>
@@ -1822,10 +1825,10 @@
     </row>
     <row r="29" spans="2:9" ht="15.75" customHeight="1">
       <c r="B29" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>63</v>
+        <v>264</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>262</v>
       </c>
       <c r="D29" s="26"/>
       <c r="E29" s="6"/>
@@ -1837,11 +1840,11 @@
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B30" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>65</v>
+      <c r="B30" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>60</v>
       </c>
       <c r="D30" s="26"/>
       <c r="E30" s="6"/>
@@ -1853,11 +1856,11 @@
       <c r="I30" s="6"/>
     </row>
     <row r="31" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B31" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>67</v>
+      <c r="B31" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>62</v>
       </c>
       <c r="D31" s="26"/>
       <c r="E31" s="6"/>
@@ -1870,10 +1873,10 @@
     </row>
     <row r="32" spans="2:9" ht="15.75" customHeight="1">
       <c r="B32" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="28" t="s">
-        <v>69</v>
+        <v>63</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>64</v>
       </c>
       <c r="D32" s="26"/>
       <c r="E32" s="6"/>
@@ -1886,10 +1889,10 @@
     </row>
     <row r="33" spans="2:9" ht="15.75" customHeight="1">
       <c r="B33" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>71</v>
+        <v>65</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>66</v>
       </c>
       <c r="D33" s="26"/>
       <c r="E33" s="6"/>
@@ -1902,10 +1905,10 @@
     </row>
     <row r="34" spans="2:9" ht="15.75" customHeight="1">
       <c r="B34" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" s="28" t="s">
-        <v>73</v>
+        <v>67</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="D34" s="26"/>
       <c r="E34" s="6"/>
@@ -1918,10 +1921,10 @@
     </row>
     <row r="35" spans="2:9" ht="15.75" customHeight="1">
       <c r="B35" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="28" t="s">
-        <v>75</v>
+        <v>69</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>70</v>
       </c>
       <c r="D35" s="26"/>
       <c r="E35" s="6"/>
@@ -1934,10 +1937,10 @@
     </row>
     <row r="36" spans="2:9" ht="15.75" customHeight="1">
       <c r="B36" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" s="28" t="s">
-        <v>269</v>
+        <v>71</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>72</v>
       </c>
       <c r="D36" s="26"/>
       <c r="E36" s="6"/>
@@ -1949,11 +1952,11 @@
       <c r="I36" s="6"/>
     </row>
     <row r="37" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B37" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" s="28" t="s">
-        <v>78</v>
+      <c r="B37" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>266</v>
       </c>
       <c r="D37" s="26"/>
       <c r="E37" s="6"/>
@@ -1966,10 +1969,10 @@
     </row>
     <row r="38" spans="2:9" ht="15.75" customHeight="1">
       <c r="B38" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" s="28" t="s">
-        <v>80</v>
+        <v>74</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>75</v>
       </c>
       <c r="D38" s="26"/>
       <c r="E38" s="6"/>
@@ -1982,10 +1985,10 @@
     </row>
     <row r="39" spans="2:9" ht="15.75" customHeight="1">
       <c r="B39" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C39" s="28" t="s">
-        <v>82</v>
+        <v>76</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>77</v>
       </c>
       <c r="D39" s="26"/>
       <c r="E39" s="6"/>
@@ -1998,10 +2001,10 @@
     </row>
     <row r="40" spans="2:9" ht="15.75" customHeight="1">
       <c r="B40" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" s="28" t="s">
-        <v>84</v>
+        <v>78</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>79</v>
       </c>
       <c r="D40" s="26"/>
       <c r="E40" s="6"/>
@@ -2013,16 +2016,16 @@
       <c r="I40" s="6"/>
     </row>
     <row r="41" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B41" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="C41" s="28" t="s">
-        <v>262</v>
+      <c r="B41" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="D41" s="26"/>
       <c r="E41" s="6"/>
       <c r="F41" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
@@ -2030,33 +2033,39 @@
     </row>
     <row r="42" spans="2:9" ht="15.75" customHeight="1">
       <c r="B42" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C42" s="28" t="s">
-        <v>86</v>
+        <v>260</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>259</v>
       </c>
       <c r="D42" s="26"/>
       <c r="E42" s="6"/>
       <c r="F42" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
     </row>
     <row r="43" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B43" s="8"/>
-      <c r="C43" s="28"/>
+      <c r="B43" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>83</v>
+      </c>
       <c r="D43" s="26"/>
       <c r="E43" s="6"/>
-      <c r="F43" s="3"/>
+      <c r="F43" s="3">
+        <v>1</v>
+      </c>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
     </row>
     <row r="44" spans="2:9" ht="15.75" customHeight="1">
       <c r="B44" s="8"/>
-      <c r="C44" s="28"/>
+      <c r="C44" s="25"/>
       <c r="D44" s="26"/>
       <c r="E44" s="6"/>
       <c r="F44" s="3"/>
@@ -2066,7 +2075,7 @@
     </row>
     <row r="45" spans="2:9" ht="15.75" customHeight="1">
       <c r="B45" s="8"/>
-      <c r="C45" s="28"/>
+      <c r="C45" s="25"/>
       <c r="D45" s="26"/>
       <c r="E45" s="6"/>
       <c r="F45" s="3"/>
@@ -2075,11 +2084,14 @@
       <c r="I45" s="6"/>
     </row>
     <row r="46" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
     </row>
     <row r="47" spans="2:9" ht="15.75" customHeight="1">
       <c r="B47" s="10"/>
@@ -2172,7 +2184,13 @@
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
     </row>
-    <row r="60" spans="2:6" ht="15.75" customHeight="1"/>
+    <row r="60" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+    </row>
     <row r="61" spans="2:6" ht="15.75" customHeight="1"/>
     <row r="62" spans="2:6" ht="15.75" customHeight="1"/>
     <row r="63" spans="2:6" ht="15.75" customHeight="1"/>
@@ -3113,56 +3131,58 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
+  <mergeCells count="49">
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C46:D46"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -3204,59 +3224,59 @@
   <sheetData>
     <row r="3" spans="3:23">
       <c r="C3" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
+        <v>84</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
     </row>
     <row r="4" spans="3:23">
       <c r="C4" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
+        <v>85</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
       <c r="I4" s="11"/>
       <c r="K4" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
+        <v>86</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
       <c r="Q4" s="11"/>
       <c r="S4" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
+        <v>87</v>
+      </c>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
     </row>
     <row r="5" spans="3:23">
       <c r="C5" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
@@ -3265,19 +3285,19 @@
         <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>8</v>
@@ -3286,28 +3306,28 @@
         <v>7</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="S5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="T5" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="W5" s="1" t="s">
         <v>6</v>
@@ -3315,25 +3335,25 @@
     </row>
     <row r="6" spans="3:23">
       <c r="C6" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
       </c>
       <c r="F6" s="12"/>
       <c r="K6" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L6" s="1">
         <v>2</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="3:23">
       <c r="C7" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
@@ -3342,7 +3362,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G7" s="13">
         <v>45722</v>
@@ -3350,7 +3370,7 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="K7" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L7" s="1">
         <v>5</v>
@@ -3359,12 +3379,12 @@
         <v>1</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="3:23">
       <c r="C8" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
@@ -3373,7 +3393,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G8" s="13">
         <v>45722</v>
@@ -3381,43 +3401,43 @@
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="K8" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L8" s="1">
         <v>4</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="3:23">
       <c r="C9" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>
       </c>
       <c r="F9" s="12"/>
       <c r="K9" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L9" s="1">
         <v>4</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="3:23">
       <c r="C10" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D10" s="1">
         <v>5</v>
       </c>
       <c r="F10" s="12"/>
       <c r="K10" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L10" s="1">
         <v>3</v>
@@ -3426,21 +3446,21 @@
         <v>1</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="3:23" ht="30">
       <c r="C11" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D11" s="1">
         <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G11" s="13">
         <v>45722</v>
@@ -3448,36 +3468,36 @@
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="K11" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="L11" s="1">
         <v>4</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="3:23">
       <c r="C12" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D12" s="1">
         <v>3</v>
       </c>
       <c r="F12" s="12"/>
       <c r="K12" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L12" s="1">
         <v>2</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="3:23" ht="30">
       <c r="C13" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D13" s="1">
         <v>5</v>
@@ -3486,7 +3506,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G13" s="13">
         <v>45722</v>
@@ -3494,61 +3514,61 @@
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="K13" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L13" s="1">
         <v>1</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="3:23">
       <c r="C14" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D14" s="1">
         <v>3</v>
       </c>
       <c r="F14" s="12"/>
       <c r="K14" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L14" s="1">
         <v>1</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="3:23">
       <c r="C15" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="12"/>
       <c r="K15" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L15" s="1">
         <v>4</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="3:23">
       <c r="C16" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
       <c r="F16" s="12"/>
       <c r="K16" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L16" s="1">
         <v>4</v>
@@ -3557,19 +3577,19 @@
         <v>1</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="3:13">
       <c r="C17" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D17" s="1">
         <v>3</v>
       </c>
       <c r="F17" s="12"/>
       <c r="K17" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L17" s="1">
         <v>5</v>
@@ -3580,14 +3600,14 @@
     </row>
     <row r="18" spans="3:13">
       <c r="C18" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="12"/>
       <c r="K18" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L18" s="1">
         <v>1</v>
@@ -3595,7 +3615,7 @@
     </row>
     <row r="19" spans="3:13">
       <c r="C19" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D19" s="1">
         <v>3</v>
@@ -3604,7 +3624,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G19" s="13">
         <v>45722</v>
@@ -3612,7 +3632,7 @@
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="K19" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L19" s="1">
         <v>4</v>
@@ -3620,14 +3640,14 @@
     </row>
     <row r="20" spans="3:13">
       <c r="C20" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D20" s="1">
         <v>3</v>
       </c>
       <c r="F20" s="12"/>
       <c r="K20" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L20" s="1">
         <v>4</v>
@@ -3635,14 +3655,14 @@
     </row>
     <row r="21" spans="3:13" ht="15.75" customHeight="1">
       <c r="C21" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D21" s="1">
         <v>3</v>
       </c>
       <c r="F21" s="12"/>
       <c r="K21" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L21" s="1">
         <v>4</v>
@@ -3650,14 +3670,14 @@
     </row>
     <row r="22" spans="3:13" ht="15.75" customHeight="1">
       <c r="C22" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
       </c>
       <c r="F22" s="12"/>
       <c r="K22" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L22" s="1">
         <v>4</v>
@@ -3665,14 +3685,14 @@
     </row>
     <row r="23" spans="3:13" ht="15.75" customHeight="1">
       <c r="C23" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
       </c>
       <c r="F23" s="12"/>
       <c r="K23" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L23" s="1">
         <v>1</v>
@@ -3680,7 +3700,7 @@
     </row>
     <row r="24" spans="3:13" ht="15.75" customHeight="1">
       <c r="C24" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D24" s="1">
         <v>2</v>
@@ -3689,7 +3709,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G24" s="13">
         <v>45722</v>
@@ -3697,7 +3717,7 @@
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
       <c r="K24" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L24" s="1">
         <v>3</v>
@@ -3705,14 +3725,14 @@
     </row>
     <row r="25" spans="3:13" ht="15.75" customHeight="1">
       <c r="C25" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D25" s="1">
         <v>5</v>
       </c>
       <c r="F25" s="12"/>
       <c r="K25" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L25" s="1">
         <v>4</v>
@@ -3723,14 +3743,14 @@
     </row>
     <row r="26" spans="3:13" ht="15.75" customHeight="1">
       <c r="C26" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D26" s="1">
         <v>3</v>
       </c>
       <c r="F26" s="12"/>
       <c r="K26" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L26" s="1">
         <v>1</v>
@@ -3738,14 +3758,14 @@
     </row>
     <row r="27" spans="3:13" ht="15.75" customHeight="1">
       <c r="C27" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
       </c>
       <c r="F27" s="12"/>
       <c r="K27" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L27" s="1">
         <v>1</v>
@@ -3753,14 +3773,14 @@
     </row>
     <row r="28" spans="3:13" ht="15.75" customHeight="1">
       <c r="C28" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D28" s="1">
         <v>2</v>
       </c>
       <c r="F28" s="12"/>
       <c r="K28" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L28" s="1">
         <v>4</v>
@@ -3768,14 +3788,14 @@
     </row>
     <row r="29" spans="3:13" ht="15.75" customHeight="1">
       <c r="C29" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
       </c>
       <c r="F29" s="12"/>
       <c r="K29" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L29" s="1">
         <v>1</v>
@@ -3783,14 +3803,14 @@
     </row>
     <row r="30" spans="3:13" ht="15.75" customHeight="1">
       <c r="C30" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D30" s="1">
         <v>5</v>
       </c>
       <c r="F30" s="12"/>
       <c r="K30" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L30" s="1">
         <v>1</v>
@@ -3798,14 +3818,14 @@
     </row>
     <row r="31" spans="3:13" ht="15.75" customHeight="1">
       <c r="C31" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D31" s="1">
         <v>3</v>
       </c>
       <c r="F31" s="12"/>
       <c r="K31" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L31" s="1">
         <v>4</v>
@@ -3813,14 +3833,14 @@
     </row>
     <row r="32" spans="3:13" ht="15.75" customHeight="1">
       <c r="C32" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D32" s="1">
         <v>5</v>
       </c>
       <c r="F32" s="12"/>
       <c r="K32" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L32" s="1">
         <v>1</v>
@@ -3828,14 +3848,14 @@
     </row>
     <row r="33" spans="3:14" ht="15.75" customHeight="1">
       <c r="C33" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D33" s="1">
         <v>2</v>
       </c>
       <c r="F33" s="12"/>
       <c r="K33" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="L33" s="1">
         <v>4</v>
@@ -3846,14 +3866,14 @@
     </row>
     <row r="34" spans="3:14" ht="15.75" customHeight="1">
       <c r="C34" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
       </c>
       <c r="F34" s="12"/>
       <c r="K34" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L34" s="1">
         <v>4</v>
@@ -3864,14 +3884,14 @@
     </row>
     <row r="35" spans="3:14" ht="15.75" customHeight="1">
       <c r="C35" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D35" s="1">
         <v>3</v>
       </c>
       <c r="F35" s="12"/>
       <c r="K35" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L35" s="1">
         <v>1</v>
@@ -3879,14 +3899,14 @@
     </row>
     <row r="36" spans="3:14" ht="15.75" customHeight="1">
       <c r="C36" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
       </c>
       <c r="F36" s="12"/>
       <c r="K36" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L36" s="1">
         <v>1</v>
@@ -3894,14 +3914,14 @@
     </row>
     <row r="37" spans="3:14" ht="15.75" customHeight="1">
       <c r="C37" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D37" s="1">
         <v>5</v>
       </c>
       <c r="F37" s="12"/>
       <c r="K37" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L37" s="1">
         <v>3</v>
@@ -3909,7 +3929,7 @@
     </row>
     <row r="38" spans="3:14" ht="15.75" customHeight="1">
       <c r="C38" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D38" s="1">
         <v>5</v>
@@ -3918,7 +3938,7 @@
         <v>2</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G38" s="13">
         <v>45722</v>
@@ -3926,7 +3946,7 @@
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
       <c r="K38" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L38" s="1">
         <v>1</v>
@@ -3934,7 +3954,7 @@
     </row>
     <row r="39" spans="3:14" ht="15.75" customHeight="1">
       <c r="C39" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D39" s="1">
         <v>5</v>
@@ -3943,7 +3963,7 @@
         <v>3</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G39" s="13">
         <v>45722</v>
@@ -3951,25 +3971,25 @@
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
       <c r="K39" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L39" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="3:14" ht="15.75" customHeight="1">
       <c r="C40" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D40" s="1">
         <v>5</v>
       </c>
       <c r="F40" s="12"/>
       <c r="K40" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L40" s="1">
         <v>4</v>
@@ -3977,16 +3997,16 @@
     </row>
     <row r="41" spans="3:14" ht="15.75" customHeight="1">
       <c r="C41" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D41" s="1">
         <v>3</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G41" s="13">
         <v>45722</v>
@@ -3994,7 +4014,7 @@
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
       <c r="K41" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L41" s="1">
         <v>2</v>
@@ -4002,14 +4022,14 @@
     </row>
     <row r="42" spans="3:14" ht="15.75" customHeight="1">
       <c r="C42" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
       </c>
       <c r="F42" s="12"/>
       <c r="K42" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L42" s="1">
         <v>4</v>
@@ -4017,7 +4037,7 @@
     </row>
     <row r="43" spans="3:14" ht="15.75" customHeight="1">
       <c r="C43" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D43" s="1">
         <v>3</v>
@@ -4026,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G43" s="13">
         <v>45722</v>
@@ -4034,7 +4054,7 @@
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
       <c r="K43" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L43" s="1">
         <v>4</v>
@@ -4045,14 +4065,14 @@
     </row>
     <row r="44" spans="3:14" ht="15.75" customHeight="1">
       <c r="C44" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D44" s="1">
         <v>3</v>
       </c>
       <c r="F44" s="12"/>
       <c r="K44" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L44" s="1">
         <v>1</v>
@@ -4060,14 +4080,14 @@
     </row>
     <row r="45" spans="3:14" ht="15.75" customHeight="1">
       <c r="C45" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D45" s="1">
         <v>1</v>
       </c>
       <c r="F45" s="12"/>
       <c r="K45" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L45" s="1">
         <v>1</v>
@@ -4075,14 +4095,14 @@
     </row>
     <row r="46" spans="3:14" ht="15.75" customHeight="1">
       <c r="C46" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
       </c>
       <c r="F46" s="12"/>
       <c r="K46" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L46" s="1">
         <v>1</v>
@@ -4090,14 +4110,14 @@
     </row>
     <row r="47" spans="3:14" ht="15.75" customHeight="1">
       <c r="C47" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D47" s="1">
         <v>4</v>
       </c>
       <c r="F47" s="12"/>
       <c r="K47" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L47" s="1">
         <v>10</v>
@@ -4105,14 +4125,14 @@
     </row>
     <row r="48" spans="3:14" ht="15.75" customHeight="1">
       <c r="C48" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D48" s="1">
         <v>1</v>
       </c>
       <c r="F48" s="12"/>
       <c r="K48" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L48" s="1">
         <v>4</v>
@@ -4120,14 +4140,14 @@
     </row>
     <row r="49" spans="3:12" ht="15.75" customHeight="1">
       <c r="C49" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D49" s="1">
         <v>1</v>
       </c>
       <c r="F49" s="12"/>
       <c r="K49" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L49" s="1">
         <v>4</v>
@@ -4135,14 +4155,14 @@
     </row>
     <row r="50" spans="3:12" ht="15.75" customHeight="1">
       <c r="C50" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D50" s="1">
         <v>1</v>
       </c>
       <c r="F50" s="12"/>
       <c r="K50" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L50" s="1">
         <v>1</v>
@@ -4150,23 +4170,23 @@
     </row>
     <row r="51" spans="3:12" ht="15.75" customHeight="1">
       <c r="C51" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D51" s="1">
         <v>1</v>
       </c>
       <c r="F51" s="12"/>
       <c r="K51" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L51" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="3:12" ht="15.75" customHeight="1">
       <c r="F52" s="12"/>
       <c r="K52" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L52" s="1">
         <v>1</v>
@@ -4175,7 +4195,7 @@
     <row r="53" spans="3:12" ht="15.75" customHeight="1">
       <c r="F53" s="12"/>
       <c r="K53" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L53" s="1">
         <v>1</v>
@@ -4184,7 +4204,7 @@
     <row r="54" spans="3:12" ht="15.75" customHeight="1">
       <c r="F54" s="12"/>
       <c r="K54" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L54" s="1">
         <v>1</v>
@@ -4193,7 +4213,7 @@
     <row r="55" spans="3:12" ht="15.75" customHeight="1">
       <c r="F55" s="12"/>
       <c r="K55" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L55" s="1">
         <v>1</v>
@@ -4202,7 +4222,7 @@
     <row r="56" spans="3:12" ht="15.75" customHeight="1">
       <c r="F56" s="12"/>
       <c r="K56" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L56" s="1">
         <v>1</v>
@@ -4211,7 +4231,7 @@
     <row r="57" spans="3:12" ht="15.75" customHeight="1">
       <c r="F57" s="12"/>
       <c r="K57" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L57" s="1">
         <v>4</v>
@@ -4220,7 +4240,7 @@
     <row r="58" spans="3:12" ht="15.75" customHeight="1">
       <c r="F58" s="12"/>
       <c r="K58" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="L58" s="1">
         <v>4</v>
@@ -4229,7 +4249,7 @@
     <row r="59" spans="3:12" ht="15.75" customHeight="1">
       <c r="F59" s="12"/>
       <c r="K59" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L59" s="1">
         <v>4</v>
@@ -4238,7 +4258,7 @@
     <row r="60" spans="3:12" ht="15.75" customHeight="1">
       <c r="F60" s="12"/>
       <c r="K60" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L60" s="1">
         <v>4</v>
@@ -4247,7 +4267,7 @@
     <row r="61" spans="3:12" ht="15.75" customHeight="1">
       <c r="F61" s="12"/>
       <c r="K61" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L61" s="1">
         <v>4</v>
@@ -4256,7 +4276,7 @@
     <row r="62" spans="3:12" ht="15.75" customHeight="1">
       <c r="F62" s="12"/>
       <c r="K62" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="L62" s="1">
         <v>4</v>
@@ -4265,7 +4285,7 @@
     <row r="63" spans="3:12" ht="15.75" customHeight="1">
       <c r="F63" s="12"/>
       <c r="K63" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L63" s="1">
         <v>1</v>
@@ -4274,7 +4294,7 @@
     <row r="64" spans="3:12" ht="15.75" customHeight="1">
       <c r="F64" s="12"/>
       <c r="K64" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="L64" s="1">
         <v>1</v>
@@ -4283,7 +4303,7 @@
     <row r="65" spans="6:13" ht="15.75" customHeight="1">
       <c r="F65" s="12"/>
       <c r="K65" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L65" s="1">
         <v>1</v>
@@ -4292,7 +4312,7 @@
     <row r="66" spans="6:13" ht="15.75" customHeight="1">
       <c r="F66" s="12"/>
       <c r="K66" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L66" s="1">
         <v>3</v>
@@ -4304,7 +4324,7 @@
     <row r="67" spans="6:13" ht="15.75" customHeight="1">
       <c r="F67" s="12"/>
       <c r="K67" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L67" s="1">
         <v>1</v>
@@ -4313,19 +4333,19 @@
     <row r="68" spans="6:13" ht="15.75" customHeight="1">
       <c r="F68" s="12"/>
       <c r="K68" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L68" s="1">
         <v>4</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="69" spans="6:13" ht="15.75" customHeight="1">
       <c r="F69" s="12"/>
       <c r="K69" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="L69" s="1">
         <v>1</v>
@@ -4334,7 +4354,7 @@
     <row r="70" spans="6:13" ht="15.75" customHeight="1">
       <c r="F70" s="12"/>
       <c r="K70" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L70" s="1">
         <v>1</v>
@@ -4343,7 +4363,7 @@
     <row r="71" spans="6:13" ht="15.75" customHeight="1">
       <c r="F71" s="12"/>
       <c r="K71" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L71" s="1">
         <v>1</v>
@@ -4352,7 +4372,7 @@
     <row r="72" spans="6:13" ht="15.75" customHeight="1">
       <c r="F72" s="12"/>
       <c r="K72" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L72" s="1">
         <v>4</v>
@@ -4361,7 +4381,7 @@
     <row r="73" spans="6:13" ht="15.75" customHeight="1">
       <c r="F73" s="12"/>
       <c r="K73" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L73" s="1">
         <v>4</v>
@@ -4370,7 +4390,7 @@
     <row r="74" spans="6:13" ht="15.75" customHeight="1">
       <c r="F74" s="12"/>
       <c r="K74" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L74" s="1">
         <v>4</v>
@@ -4379,7 +4399,7 @@
     <row r="75" spans="6:13" ht="15.75" customHeight="1">
       <c r="F75" s="12"/>
       <c r="K75" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="L75" s="1">
         <v>12</v>
@@ -4388,7 +4408,7 @@
     <row r="76" spans="6:13" ht="15.75" customHeight="1">
       <c r="F76" s="12"/>
       <c r="K76" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="L76" s="1">
         <v>4</v>
@@ -4397,25 +4417,25 @@
     <row r="77" spans="6:13" ht="15.75" customHeight="1">
       <c r="F77" s="12"/>
       <c r="K77" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" spans="6:13" ht="15.75" customHeight="1">
       <c r="F78" s="12"/>
       <c r="K78" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="6:13" ht="15.75" customHeight="1">
       <c r="F79" s="12"/>
       <c r="K79" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="L79" s="1">
         <v>7</v>
@@ -4424,19 +4444,19 @@
     <row r="80" spans="6:13" ht="15.75" customHeight="1">
       <c r="F80" s="12"/>
       <c r="K80" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="L80" s="1">
         <v>3</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81" spans="6:13" ht="15.75" customHeight="1">
       <c r="F81" s="12"/>
       <c r="K81" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L81" s="1">
         <v>1</v>
@@ -4445,7 +4465,7 @@
     <row r="82" spans="6:13" ht="15.75" customHeight="1">
       <c r="F82" s="12"/>
       <c r="K82" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="L82" s="1">
         <v>1</v>
@@ -4454,7 +4474,7 @@
     <row r="83" spans="6:13" ht="15.75" customHeight="1">
       <c r="F83" s="12"/>
       <c r="K83" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L83" s="1">
         <v>1</v>
@@ -4463,7 +4483,7 @@
     <row r="84" spans="6:13" ht="15.75" customHeight="1">
       <c r="F84" s="12"/>
       <c r="K84" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L84" s="1">
         <v>1</v>
@@ -4472,16 +4492,16 @@
     <row r="85" spans="6:13" ht="15.75" customHeight="1">
       <c r="F85" s="12"/>
       <c r="K85" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" spans="6:13" ht="15.75" customHeight="1">
       <c r="F86" s="12"/>
       <c r="K86" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L86" s="1">
         <v>1</v>
@@ -4490,7 +4510,7 @@
     <row r="87" spans="6:13" ht="15.75" customHeight="1">
       <c r="F87" s="12"/>
       <c r="K87" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L87" s="1">
         <v>1</v>
@@ -4499,7 +4519,7 @@
     <row r="88" spans="6:13" ht="15.75" customHeight="1">
       <c r="F88" s="12"/>
       <c r="K88" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L88" s="1">
         <v>1</v>
@@ -4508,7 +4528,7 @@
     <row r="89" spans="6:13" ht="15.75" customHeight="1">
       <c r="F89" s="12"/>
       <c r="K89" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L89" s="1">
         <v>3</v>
@@ -4517,7 +4537,7 @@
     <row r="90" spans="6:13" ht="15.75" customHeight="1">
       <c r="F90" s="12"/>
       <c r="K90" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L90" s="1">
         <v>3</v>
@@ -4526,7 +4546,7 @@
     <row r="91" spans="6:13" ht="15.75" customHeight="1">
       <c r="F91" s="12"/>
       <c r="K91" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L91" s="1">
         <v>6</v>
@@ -4538,7 +4558,7 @@
     <row r="92" spans="6:13" ht="15.75" customHeight="1">
       <c r="F92" s="12"/>
       <c r="K92" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L92" s="1">
         <v>2</v>
@@ -4547,7 +4567,7 @@
     <row r="93" spans="6:13" ht="15.75" customHeight="1">
       <c r="F93" s="12"/>
       <c r="K93" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L93" s="1">
         <v>1</v>
@@ -4556,7 +4576,7 @@
     <row r="94" spans="6:13" ht="15.75" customHeight="1">
       <c r="F94" s="12"/>
       <c r="K94" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L94" s="1">
         <v>1</v>
@@ -4565,7 +4585,7 @@
     <row r="95" spans="6:13" ht="15.75" customHeight="1">
       <c r="F95" s="12"/>
       <c r="K95" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="L95" s="1">
         <v>4</v>
@@ -4574,7 +4594,7 @@
     <row r="96" spans="6:13" ht="15.75" customHeight="1">
       <c r="F96" s="12"/>
       <c r="K96" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="L96" s="1">
         <v>1</v>
@@ -4583,7 +4603,7 @@
     <row r="97" spans="6:13" ht="15.75" customHeight="1">
       <c r="F97" s="12"/>
       <c r="K97" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="L97" s="1">
         <v>4</v>
@@ -4592,7 +4612,7 @@
     <row r="98" spans="6:13" ht="15.75" customHeight="1">
       <c r="F98" s="12"/>
       <c r="K98" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="L98" s="1">
         <v>4</v>
@@ -4601,16 +4621,16 @@
     <row r="99" spans="6:13" ht="15.75" customHeight="1">
       <c r="F99" s="12"/>
       <c r="K99" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100" spans="6:13" ht="15.75" customHeight="1">
       <c r="F100" s="12"/>
       <c r="K100" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L100" s="1">
         <v>1</v>
@@ -4618,7 +4638,7 @@
     </row>
     <row r="101" spans="6:13" ht="15.75" customHeight="1">
       <c r="K101" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="L101" s="1">
         <v>4</v>
@@ -4626,7 +4646,7 @@
     </row>
     <row r="102" spans="6:13" ht="15.75" customHeight="1">
       <c r="K102" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L102" s="1">
         <v>1</v>
@@ -4634,7 +4654,7 @@
     </row>
     <row r="103" spans="6:13" ht="15.75" customHeight="1">
       <c r="K103" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L103" s="1">
         <v>5</v>

--- a/Formulacion.xlsx
+++ b/Formulacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CETI\Proyecto\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4ADEE4-B681-48CC-8E7D-43CEB14C9D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99F6B77-C35C-4FAC-9917-3ADA8263ADAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1022,7 +1022,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1079,15 +1079,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1095,8 +1090,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1315,8 +1318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -1338,28 +1341,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="30" customHeight="1">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="25"/>
     </row>
     <row r="3" spans="2:15" ht="33.75" customHeight="1">
-      <c r="B3" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="26"/>
+      <c r="B3" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="25"/>
       <c r="M3" s="15" t="s">
         <v>2</v>
       </c>
@@ -1374,10 +1377,10 @@
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="26"/>
+      <c r="D4" s="25"/>
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1407,10 +1410,10 @@
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="26"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="5"/>
       <c r="F5" s="3">
         <v>1</v>
@@ -1432,10 +1435,10 @@
       <c r="B6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="26"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="5"/>
       <c r="F6" s="3">
         <v>1</v>
@@ -1457,10 +1460,10 @@
       <c r="B7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="26"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="5"/>
       <c r="F7" s="3" t="s">
         <v>24</v>
@@ -1473,10 +1476,10 @@
       <c r="B8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="26"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="5"/>
       <c r="F8" s="3" t="s">
         <v>24</v>
@@ -1489,10 +1492,10 @@
       <c r="B9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="26"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="5"/>
       <c r="F9" s="3">
         <v>2</v>
@@ -1501,19 +1504,19 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="M9" s="17"/>
-      <c r="N9" s="24" t="s">
+      <c r="N9" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="O9" s="24"/>
+      <c r="O9" s="31"/>
     </row>
     <row r="10" spans="2:15" ht="15.75">
       <c r="B10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="26"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="5"/>
       <c r="F10" s="3">
         <v>1</v>
@@ -1522,19 +1525,19 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="M10" s="18"/>
-      <c r="N10" s="24" t="s">
+      <c r="N10" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="O10" s="24"/>
+      <c r="O10" s="31"/>
     </row>
     <row r="11" spans="2:15" ht="15.75">
       <c r="B11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="26"/>
+      <c r="D11" s="25"/>
       <c r="E11" s="5"/>
       <c r="F11" s="3">
         <v>1</v>
@@ -1543,17 +1546,17 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="M11" s="19"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
     </row>
     <row r="12" spans="2:15" ht="15.75">
       <c r="B12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="26"/>
+      <c r="D12" s="25"/>
       <c r="E12" s="5"/>
       <c r="F12" s="3" t="s">
         <v>35</v>
@@ -1562,19 +1565,19 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="M12" s="23"/>
-      <c r="N12" s="24" t="s">
+      <c r="N12" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="O12" s="24"/>
+      <c r="O12" s="31"/>
     </row>
     <row r="13" spans="2:15" ht="15.75">
       <c r="B13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="26"/>
+      <c r="D13" s="25"/>
       <c r="E13" s="5"/>
       <c r="F13" s="3" t="s">
         <v>35</v>
@@ -1587,10 +1590,10 @@
       <c r="B14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="26"/>
+      <c r="D14" s="25"/>
       <c r="E14" s="5"/>
       <c r="F14" s="3">
         <v>3</v>
@@ -1600,13 +1603,13 @@
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="2:15" ht="15.75">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="D15" s="26"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="5"/>
       <c r="F15" s="3">
         <v>1</v>
@@ -1616,13 +1619,13 @@
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="2:15" ht="15.75">
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="D16" s="26"/>
+      <c r="D16" s="25"/>
       <c r="E16" s="5"/>
       <c r="F16" s="3">
         <v>0</v>
@@ -1632,13 +1635,13 @@
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="2:9" ht="15.75">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="D17" s="26"/>
+      <c r="D17" s="25"/>
       <c r="E17" s="5"/>
       <c r="F17" s="3">
         <v>1</v>
@@ -1651,10 +1654,10 @@
       <c r="B18" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="26"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="5"/>
       <c r="F18" s="3">
         <v>1</v>
@@ -1667,10 +1670,10 @@
       <c r="B19" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="28"/>
+      <c r="D19" s="30"/>
       <c r="E19" s="5"/>
       <c r="F19" s="3">
         <v>1</v>
@@ -1683,10 +1686,10 @@
       <c r="B20" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="28"/>
+      <c r="D20" s="30"/>
       <c r="E20" s="5"/>
       <c r="F20" s="3">
         <v>2</v>
@@ -1699,10 +1702,10 @@
       <c r="B21" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="26"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="6"/>
       <c r="F21" s="3">
         <v>1</v>
@@ -1715,10 +1718,10 @@
       <c r="B22" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="26"/>
+      <c r="D22" s="25"/>
       <c r="E22" s="6"/>
       <c r="F22" s="3">
         <v>3</v>
@@ -1731,10 +1734,10 @@
       <c r="B23" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="26"/>
+      <c r="D23" s="25"/>
       <c r="E23" s="6"/>
       <c r="F23" s="3">
         <v>1</v>
@@ -1747,10 +1750,10 @@
       <c r="B24" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="26"/>
+      <c r="D24" s="25"/>
       <c r="E24" s="6"/>
       <c r="F24" s="3">
         <v>2</v>
@@ -1763,10 +1766,10 @@
       <c r="B25" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="26"/>
+      <c r="D25" s="25"/>
       <c r="E25" s="6"/>
       <c r="F25" s="3">
         <v>2</v>
@@ -1779,10 +1782,10 @@
       <c r="B26" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="26"/>
+      <c r="D26" s="25"/>
       <c r="E26" s="6"/>
       <c r="F26" s="3">
         <v>1</v>
@@ -1795,10 +1798,10 @@
       <c r="B27" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="26"/>
+      <c r="D27" s="25"/>
       <c r="E27" s="6"/>
       <c r="F27" s="3">
         <v>1</v>
@@ -1811,10 +1814,10 @@
       <c r="B28" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="D28" s="26"/>
+      <c r="D28" s="25"/>
       <c r="E28" s="6"/>
       <c r="F28" s="3">
         <v>1</v>
@@ -1827,10 +1830,10 @@
       <c r="B29" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="D29" s="26"/>
+      <c r="D29" s="25"/>
       <c r="E29" s="6"/>
       <c r="F29" s="3">
         <v>1</v>
@@ -1843,10 +1846,10 @@
       <c r="B30" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="26"/>
+      <c r="D30" s="25"/>
       <c r="E30" s="6"/>
       <c r="F30" s="3">
         <v>1</v>
@@ -1859,10 +1862,10 @@
       <c r="B31" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="26"/>
+      <c r="D31" s="25"/>
       <c r="E31" s="6"/>
       <c r="F31" s="3">
         <v>1</v>
@@ -1875,10 +1878,10 @@
       <c r="B32" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="26"/>
+      <c r="D32" s="25"/>
       <c r="E32" s="6"/>
       <c r="F32" s="3">
         <v>1</v>
@@ -1891,10 +1894,10 @@
       <c r="B33" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="D33" s="26"/>
+      <c r="D33" s="25"/>
       <c r="E33" s="6"/>
       <c r="F33" s="3">
         <v>1</v>
@@ -1907,10 +1910,10 @@
       <c r="B34" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="26"/>
+      <c r="D34" s="25"/>
       <c r="E34" s="6"/>
       <c r="F34" s="3">
         <v>1</v>
@@ -1923,10 +1926,10 @@
       <c r="B35" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="26"/>
+      <c r="D35" s="25"/>
       <c r="E35" s="6"/>
       <c r="F35" s="3">
         <v>1</v>
@@ -1939,10 +1942,10 @@
       <c r="B36" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="26"/>
+      <c r="D36" s="25"/>
       <c r="E36" s="6"/>
       <c r="F36" s="3">
         <v>1</v>
@@ -1955,10 +1958,10 @@
       <c r="B37" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="D37" s="26"/>
+      <c r="D37" s="25"/>
       <c r="E37" s="6"/>
       <c r="F37" s="3">
         <v>1</v>
@@ -1971,10 +1974,10 @@
       <c r="B38" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="26"/>
+      <c r="D38" s="25"/>
       <c r="E38" s="6"/>
       <c r="F38" s="3">
         <v>1</v>
@@ -1987,10 +1990,10 @@
       <c r="B39" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="D39" s="26"/>
+      <c r="D39" s="25"/>
       <c r="E39" s="6"/>
       <c r="F39" s="3">
         <v>1</v>
@@ -2003,10 +2006,10 @@
       <c r="B40" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="D40" s="26"/>
+      <c r="D40" s="25"/>
       <c r="E40" s="6"/>
       <c r="F40" s="3">
         <v>1</v>
@@ -2019,10 +2022,10 @@
       <c r="B41" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="26"/>
+      <c r="D41" s="25"/>
       <c r="E41" s="6"/>
       <c r="F41" s="3">
         <v>1</v>
@@ -2035,10 +2038,10 @@
       <c r="B42" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="D42" s="26"/>
+      <c r="D42" s="25"/>
       <c r="E42" s="6"/>
       <c r="F42" s="3">
         <v>2</v>
@@ -2051,10 +2054,10 @@
       <c r="B43" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="C43" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="D43" s="26"/>
+      <c r="D43" s="25"/>
       <c r="E43" s="6"/>
       <c r="F43" s="3">
         <v>1</v>
@@ -2065,8 +2068,8 @@
     </row>
     <row r="44" spans="2:9" ht="15.75" customHeight="1">
       <c r="B44" s="8"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="26"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="25"/>
       <c r="E44" s="6"/>
       <c r="F44" s="3"/>
       <c r="G44" s="6"/>
@@ -2075,8 +2078,8 @@
     </row>
     <row r="45" spans="2:9" ht="15.75" customHeight="1">
       <c r="B45" s="8"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="26"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="25"/>
       <c r="E45" s="6"/>
       <c r="F45" s="3"/>
       <c r="G45" s="6"/>
@@ -2085,8 +2088,8 @@
     </row>
     <row r="46" spans="2:9" ht="15.75" customHeight="1">
       <c r="B46" s="8"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="26"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="25"/>
       <c r="E46" s="6"/>
       <c r="F46" s="3"/>
       <c r="G46" s="6"/>
@@ -3134,39 +3137,6 @@
     <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
     <mergeCell ref="N12:O12"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="N10:O10"/>
@@ -3183,6 +3153,39 @@
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -3226,53 +3229,53 @@
       <c r="C3" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
     </row>
     <row r="4" spans="3:23">
       <c r="C4" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
       <c r="I4" s="11"/>
       <c r="K4" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
       <c r="Q4" s="11"/>
       <c r="S4" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
     </row>
     <row r="5" spans="3:23">
       <c r="C5" s="1" t="s">

--- a/Formulacion.xlsx
+++ b/Formulacion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CETI\Proyecto\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99F6B77-C35C-4FAC-9917-3ADA8263ADAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2233C297-846F-4849-84C8-E4B4F8B1FE8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Control-Incinerador PLASTIRAL" sheetId="1" r:id="rId1"/>
@@ -890,12 +890,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDBE9F7"/>
-        <bgColor rgb="FFDBE9F7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD9F2D0"/>
         <bgColor rgb="FFD9F2D0"/>
       </patternFill>
@@ -939,6 +933,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor rgb="FFDBE9F7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor rgb="FFDBE9F7"/>
       </patternFill>
     </fill>
@@ -1031,20 +1031,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1066,23 +1063,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1090,15 +1095,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1318,8 +1318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:D15"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -1341,35 +1341,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="30" customHeight="1">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="25"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="26"/>
     </row>
     <row r="3" spans="2:15" ht="33.75" customHeight="1">
-      <c r="B3" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="25"/>
-      <c r="M3" s="15" t="s">
+      <c r="B3" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="26"/>
+      <c r="M3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="N3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="O3" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1377,10 +1377,10 @@
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="25"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1396,803 +1396,803 @@
       <c r="I4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="M4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="N4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="O4" s="14" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="33.75" customHeight="1">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="5"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="3">
         <v>1</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="M5" s="15" t="s">
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="M5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="O5" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="28.5" customHeight="1">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="5"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="3">
         <v>1</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="M6" s="15" t="s">
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="M6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="16" t="s">
+      <c r="N6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="15" t="s">
+      <c r="O6" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="15.75">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="5"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="2:15" ht="15.75">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="5"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="2:15" ht="15.75">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="5"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="3">
         <v>2</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="31" t="s">
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="O9" s="31"/>
+      <c r="O9" s="24"/>
     </row>
     <row r="10" spans="2:15" ht="15.75">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="5"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="3">
         <v>1</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="31" t="s">
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="O10" s="31"/>
+      <c r="O10" s="24"/>
     </row>
     <row r="11" spans="2:15" ht="15.75">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="5"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="3">
         <v>1</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
     </row>
     <row r="12" spans="2:15" ht="15.75">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="5"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="31" t="s">
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="O12" s="31"/>
+      <c r="O12" s="24"/>
     </row>
     <row r="13" spans="2:15" ht="15.75">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="5"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
     </row>
     <row r="14" spans="2:15" ht="15.75">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="5"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="3">
         <v>3</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" spans="2:15" ht="15.75">
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="5"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="3">
         <v>1</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
     </row>
     <row r="16" spans="2:15" ht="15.75">
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="5"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="3">
         <v>0</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" spans="2:9" ht="15.75">
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="25" t="s">
         <v>268</v>
       </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="5"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="3">
         <v>1</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
     </row>
     <row r="18" spans="2:9" ht="15.75">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="5"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="3">
         <v>1</v>
       </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
     </row>
     <row r="19" spans="2:9" ht="15.75">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="5"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="3">
         <v>1</v>
       </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
     </row>
     <row r="20" spans="2:9" ht="15.75">
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="5"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="3">
         <v>2</v>
       </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
     </row>
     <row r="21" spans="2:9" ht="15.75">
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="6"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="5"/>
       <c r="F21" s="3">
         <v>1</v>
       </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
     </row>
     <row r="22" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="6"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="5"/>
       <c r="F22" s="3">
         <v>3</v>
       </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
     </row>
     <row r="23" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="6"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="5"/>
       <c r="F23" s="3">
         <v>1</v>
       </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
     </row>
     <row r="24" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="6"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="5"/>
       <c r="F24" s="3">
         <v>2</v>
       </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
     </row>
     <row r="25" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="6"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="5"/>
       <c r="F25" s="3">
         <v>2</v>
       </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
     </row>
     <row r="26" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="6"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="5"/>
       <c r="F26" s="3">
         <v>1</v>
       </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
     </row>
     <row r="27" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="6"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="5"/>
       <c r="F27" s="3">
         <v>1</v>
       </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
     </row>
     <row r="28" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="6"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="5"/>
       <c r="F28" s="3">
         <v>1</v>
       </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
     </row>
     <row r="29" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="6"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="5"/>
       <c r="F29" s="3">
         <v>1</v>
       </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
     </row>
     <row r="30" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="6"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="5"/>
       <c r="F30" s="3">
         <v>1</v>
       </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
     </row>
     <row r="31" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="6"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="5"/>
       <c r="F31" s="3">
         <v>1</v>
       </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
     </row>
     <row r="32" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="6"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="5"/>
       <c r="F32" s="3">
         <v>1</v>
       </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
     </row>
     <row r="33" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="6"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="5"/>
       <c r="F33" s="3">
         <v>1</v>
       </c>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
     </row>
     <row r="34" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="6"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="5"/>
       <c r="F34" s="3">
         <v>1</v>
       </c>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
     </row>
     <row r="35" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="25"/>
-      <c r="E35" s="6"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="5"/>
       <c r="F35" s="3">
         <v>1</v>
       </c>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
     </row>
     <row r="36" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="25"/>
-      <c r="E36" s="6"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="5"/>
       <c r="F36" s="3">
         <v>1</v>
       </c>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
     </row>
     <row r="37" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="D37" s="25"/>
-      <c r="E37" s="6"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="5"/>
       <c r="F37" s="3">
         <v>1</v>
       </c>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
     </row>
     <row r="38" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="C38" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="25"/>
-      <c r="E38" s="6"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="5"/>
       <c r="F38" s="3">
         <v>1</v>
       </c>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
     </row>
     <row r="39" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="6"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="5"/>
       <c r="F39" s="3">
         <v>1</v>
       </c>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
     </row>
     <row r="40" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="D40" s="25"/>
-      <c r="E40" s="6"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="5"/>
       <c r="F40" s="3">
         <v>1</v>
       </c>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
     </row>
     <row r="41" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C41" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="25"/>
-      <c r="E41" s="6"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="5"/>
       <c r="F41" s="3">
         <v>1</v>
       </c>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
     </row>
     <row r="42" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="6"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="5"/>
       <c r="F42" s="3">
         <v>2</v>
       </c>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
     </row>
     <row r="43" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="6"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="5"/>
       <c r="F43" s="3">
         <v>1</v>
       </c>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
     </row>
     <row r="44" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B44" s="8"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="6"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="5"/>
       <c r="F44" s="3"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
     </row>
     <row r="45" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B45" s="8"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="6"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="5"/>
       <c r="F45" s="3"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
     </row>
     <row r="46" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B46" s="8"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="6"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="5"/>
       <c r="F46" s="3"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
     </row>
     <row r="47" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
     </row>
     <row r="48" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
     </row>
     <row r="49" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
     </row>
     <row r="50" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
     </row>
     <row r="51" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
     </row>
     <row r="52" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
     </row>
     <row r="53" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
     </row>
     <row r="54" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
     </row>
     <row r="55" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
     </row>
     <row r="56" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
     </row>
     <row r="57" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
     </row>
     <row r="58" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
     </row>
     <row r="59" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
     </row>
     <row r="60" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
     </row>
     <row r="61" spans="2:6" ht="15.75" customHeight="1"/>
     <row r="62" spans="2:6" ht="15.75" customHeight="1"/>
@@ -3137,6 +3137,39 @@
     <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
     <mergeCell ref="N12:O12"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="N10:O10"/>
@@ -3153,39 +3186,6 @@
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -3229,53 +3229,53 @@
       <c r="C3" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
     </row>
     <row r="4" spans="3:23">
       <c r="C4" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="11"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="10"/>
       <c r="K4" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="11"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="10"/>
       <c r="S4" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
     </row>
     <row r="5" spans="3:23">
       <c r="C5" s="1" t="s">
@@ -3343,7 +3343,7 @@
       <c r="D6" s="1">
         <v>3</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="11"/>
       <c r="K6" s="1" t="s">
         <v>94</v>
       </c>
@@ -3364,14 +3364,14 @@
       <c r="E7" s="1">
         <v>3</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="12">
         <v>45722</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
       <c r="K7" s="1" t="s">
         <v>98</v>
       </c>
@@ -3395,14 +3395,14 @@
       <c r="E8" s="1">
         <v>2</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="12">
         <v>45722</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
       <c r="K8" s="1" t="s">
         <v>102</v>
       </c>
@@ -3420,7 +3420,7 @@
       <c r="D9" s="1">
         <v>3</v>
       </c>
-      <c r="F9" s="12"/>
+      <c r="F9" s="11"/>
       <c r="K9" s="1" t="s">
         <v>105</v>
       </c>
@@ -3438,7 +3438,7 @@
       <c r="D10" s="1">
         <v>5</v>
       </c>
-      <c r="F10" s="12"/>
+      <c r="F10" s="11"/>
       <c r="K10" s="1" t="s">
         <v>108</v>
       </c>
@@ -3462,14 +3462,14 @@
       <c r="E11" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="12">
         <v>45722</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
       <c r="K11" s="1" t="s">
         <v>113</v>
       </c>
@@ -3487,7 +3487,7 @@
       <c r="D12" s="1">
         <v>3</v>
       </c>
-      <c r="F12" s="12"/>
+      <c r="F12" s="11"/>
       <c r="K12" s="1" t="s">
         <v>116</v>
       </c>
@@ -3508,14 +3508,14 @@
       <c r="E13" s="1">
         <v>3</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="12">
         <v>45722</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
       <c r="K13" s="1" t="s">
         <v>120</v>
       </c>
@@ -3533,7 +3533,7 @@
       <c r="D14" s="1">
         <v>3</v>
       </c>
-      <c r="F14" s="12"/>
+      <c r="F14" s="11"/>
       <c r="K14" s="1" t="s">
         <v>123</v>
       </c>
@@ -3551,7 +3551,7 @@
       <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="F15" s="12"/>
+      <c r="F15" s="11"/>
       <c r="K15" s="1" t="s">
         <v>126</v>
       </c>
@@ -3569,7 +3569,7 @@
       <c r="D16" s="1">
         <v>1</v>
       </c>
-      <c r="F16" s="12"/>
+      <c r="F16" s="11"/>
       <c r="K16" s="1" t="s">
         <v>129</v>
       </c>
@@ -3590,7 +3590,7 @@
       <c r="D17" s="1">
         <v>3</v>
       </c>
-      <c r="F17" s="12"/>
+      <c r="F17" s="11"/>
       <c r="K17" s="1" t="s">
         <v>132</v>
       </c>
@@ -3608,7 +3608,7 @@
       <c r="D18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="12"/>
+      <c r="F18" s="11"/>
       <c r="K18" s="1" t="s">
         <v>134</v>
       </c>
@@ -3626,14 +3626,14 @@
       <c r="E19" s="1">
         <v>1</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="12">
         <v>45722</v>
       </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
       <c r="K19" s="1" t="s">
         <v>137</v>
       </c>
@@ -3648,7 +3648,7 @@
       <c r="D20" s="1">
         <v>3</v>
       </c>
-      <c r="F20" s="12"/>
+      <c r="F20" s="11"/>
       <c r="K20" s="1" t="s">
         <v>139</v>
       </c>
@@ -3663,7 +3663,7 @@
       <c r="D21" s="1">
         <v>3</v>
       </c>
-      <c r="F21" s="12"/>
+      <c r="F21" s="11"/>
       <c r="K21" s="1" t="s">
         <v>141</v>
       </c>
@@ -3678,7 +3678,7 @@
       <c r="D22" s="1">
         <v>1</v>
       </c>
-      <c r="F22" s="12"/>
+      <c r="F22" s="11"/>
       <c r="K22" s="1" t="s">
         <v>143</v>
       </c>
@@ -3693,7 +3693,7 @@
       <c r="D23" s="1">
         <v>1</v>
       </c>
-      <c r="F23" s="12"/>
+      <c r="F23" s="11"/>
       <c r="K23" s="1" t="s">
         <v>145</v>
       </c>
@@ -3711,14 +3711,14 @@
       <c r="E24" s="1">
         <v>1</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G24" s="12">
         <v>45722</v>
       </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
       <c r="K24" s="1" t="s">
         <v>148</v>
       </c>
@@ -3733,7 +3733,7 @@
       <c r="D25" s="1">
         <v>5</v>
       </c>
-      <c r="F25" s="12"/>
+      <c r="F25" s="11"/>
       <c r="K25" s="1" t="s">
         <v>150</v>
       </c>
@@ -3751,7 +3751,7 @@
       <c r="D26" s="1">
         <v>3</v>
       </c>
-      <c r="F26" s="12"/>
+      <c r="F26" s="11"/>
       <c r="K26" s="1" t="s">
         <v>152</v>
       </c>
@@ -3766,7 +3766,7 @@
       <c r="D27" s="1">
         <v>1</v>
       </c>
-      <c r="F27" s="12"/>
+      <c r="F27" s="11"/>
       <c r="K27" s="1" t="s">
         <v>154</v>
       </c>
@@ -3781,7 +3781,7 @@
       <c r="D28" s="1">
         <v>2</v>
       </c>
-      <c r="F28" s="12"/>
+      <c r="F28" s="11"/>
       <c r="K28" s="1" t="s">
         <v>156</v>
       </c>
@@ -3796,7 +3796,7 @@
       <c r="D29" s="1">
         <v>1</v>
       </c>
-      <c r="F29" s="12"/>
+      <c r="F29" s="11"/>
       <c r="K29" s="1" t="s">
         <v>158</v>
       </c>
@@ -3811,7 +3811,7 @@
       <c r="D30" s="1">
         <v>5</v>
       </c>
-      <c r="F30" s="12"/>
+      <c r="F30" s="11"/>
       <c r="K30" s="1" t="s">
         <v>160</v>
       </c>
@@ -3826,7 +3826,7 @@
       <c r="D31" s="1">
         <v>3</v>
       </c>
-      <c r="F31" s="12"/>
+      <c r="F31" s="11"/>
       <c r="K31" s="1" t="s">
         <v>162</v>
       </c>
@@ -3841,7 +3841,7 @@
       <c r="D32" s="1">
         <v>5</v>
       </c>
-      <c r="F32" s="12"/>
+      <c r="F32" s="11"/>
       <c r="K32" s="1" t="s">
         <v>164</v>
       </c>
@@ -3856,7 +3856,7 @@
       <c r="D33" s="1">
         <v>2</v>
       </c>
-      <c r="F33" s="12"/>
+      <c r="F33" s="11"/>
       <c r="K33" s="1" t="s">
         <v>166</v>
       </c>
@@ -3874,7 +3874,7 @@
       <c r="D34" s="1">
         <v>1</v>
       </c>
-      <c r="F34" s="12"/>
+      <c r="F34" s="11"/>
       <c r="K34" s="1" t="s">
         <v>168</v>
       </c>
@@ -3892,7 +3892,7 @@
       <c r="D35" s="1">
         <v>3</v>
       </c>
-      <c r="F35" s="12"/>
+      <c r="F35" s="11"/>
       <c r="K35" s="1" t="s">
         <v>170</v>
       </c>
@@ -3907,7 +3907,7 @@
       <c r="D36" s="1">
         <v>1</v>
       </c>
-      <c r="F36" s="12"/>
+      <c r="F36" s="11"/>
       <c r="K36" s="1" t="s">
         <v>172</v>
       </c>
@@ -3922,7 +3922,7 @@
       <c r="D37" s="1">
         <v>5</v>
       </c>
-      <c r="F37" s="12"/>
+      <c r="F37" s="11"/>
       <c r="K37" s="1" t="s">
         <v>174</v>
       </c>
@@ -3940,14 +3940,14 @@
       <c r="E38" s="1">
         <v>2</v>
       </c>
-      <c r="F38" s="12" t="s">
+      <c r="F38" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G38" s="12">
         <v>45722</v>
       </c>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
       <c r="K38" s="1" t="s">
         <v>176</v>
       </c>
@@ -3965,18 +3965,18 @@
       <c r="E39" s="1">
         <v>3</v>
       </c>
-      <c r="F39" s="12" t="s">
+      <c r="F39" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G39" s="12">
         <v>45722</v>
       </c>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
       <c r="K39" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="L39" s="14" t="s">
+      <c r="L39" s="13" t="s">
         <v>24</v>
       </c>
       <c r="N39" s="1" t="s">
@@ -3990,7 +3990,7 @@
       <c r="D40" s="1">
         <v>5</v>
       </c>
-      <c r="F40" s="12"/>
+      <c r="F40" s="11"/>
       <c r="K40" s="1" t="s">
         <v>181</v>
       </c>
@@ -4008,14 +4008,14 @@
       <c r="E41" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F41" s="12" t="s">
+      <c r="F41" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G41" s="12">
         <v>45722</v>
       </c>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
       <c r="K41" s="1" t="s">
         <v>184</v>
       </c>
@@ -4030,7 +4030,7 @@
       <c r="D42" s="1">
         <v>1</v>
       </c>
-      <c r="F42" s="12"/>
+      <c r="F42" s="11"/>
       <c r="K42" s="1" t="s">
         <v>186</v>
       </c>
@@ -4048,14 +4048,14 @@
       <c r="E43" s="1">
         <v>1</v>
       </c>
-      <c r="F43" s="12" t="s">
+      <c r="F43" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="G43" s="13">
+      <c r="G43" s="12">
         <v>45722</v>
       </c>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
       <c r="K43" s="1" t="s">
         <v>188</v>
       </c>
@@ -4073,7 +4073,7 @@
       <c r="D44" s="1">
         <v>3</v>
       </c>
-      <c r="F44" s="12"/>
+      <c r="F44" s="11"/>
       <c r="K44" s="1" t="s">
         <v>190</v>
       </c>
@@ -4088,7 +4088,7 @@
       <c r="D45" s="1">
         <v>1</v>
       </c>
-      <c r="F45" s="12"/>
+      <c r="F45" s="11"/>
       <c r="K45" s="1" t="s">
         <v>192</v>
       </c>
@@ -4103,7 +4103,7 @@
       <c r="D46" s="1">
         <v>1</v>
       </c>
-      <c r="F46" s="12"/>
+      <c r="F46" s="11"/>
       <c r="K46" s="1" t="s">
         <v>194</v>
       </c>
@@ -4118,7 +4118,7 @@
       <c r="D47" s="1">
         <v>4</v>
       </c>
-      <c r="F47" s="12"/>
+      <c r="F47" s="11"/>
       <c r="K47" s="1" t="s">
         <v>196</v>
       </c>
@@ -4133,7 +4133,7 @@
       <c r="D48" s="1">
         <v>1</v>
       </c>
-      <c r="F48" s="12"/>
+      <c r="F48" s="11"/>
       <c r="K48" s="1" t="s">
         <v>198</v>
       </c>
@@ -4148,7 +4148,7 @@
       <c r="D49" s="1">
         <v>1</v>
       </c>
-      <c r="F49" s="12"/>
+      <c r="F49" s="11"/>
       <c r="K49" s="1" t="s">
         <v>146</v>
       </c>
@@ -4163,7 +4163,7 @@
       <c r="D50" s="1">
         <v>1</v>
       </c>
-      <c r="F50" s="12"/>
+      <c r="F50" s="11"/>
       <c r="K50" s="1" t="s">
         <v>78</v>
       </c>
@@ -4178,16 +4178,16 @@
       <c r="D51" s="1">
         <v>1</v>
       </c>
-      <c r="F51" s="12"/>
+      <c r="F51" s="11"/>
       <c r="K51" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="L51" s="14" t="s">
+      <c r="L51" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="52" spans="3:12" ht="15.75" customHeight="1">
-      <c r="F52" s="12"/>
+      <c r="F52" s="11"/>
       <c r="K52" s="1" t="s">
         <v>203</v>
       </c>
@@ -4196,7 +4196,7 @@
       </c>
     </row>
     <row r="53" spans="3:12" ht="15.75" customHeight="1">
-      <c r="F53" s="12"/>
+      <c r="F53" s="11"/>
       <c r="K53" s="1" t="s">
         <v>204</v>
       </c>
@@ -4205,7 +4205,7 @@
       </c>
     </row>
     <row r="54" spans="3:12" ht="15.75" customHeight="1">
-      <c r="F54" s="12"/>
+      <c r="F54" s="11"/>
       <c r="K54" s="1" t="s">
         <v>205</v>
       </c>
@@ -4214,7 +4214,7 @@
       </c>
     </row>
     <row r="55" spans="3:12" ht="15.75" customHeight="1">
-      <c r="F55" s="12"/>
+      <c r="F55" s="11"/>
       <c r="K55" s="1" t="s">
         <v>206</v>
       </c>
@@ -4223,7 +4223,7 @@
       </c>
     </row>
     <row r="56" spans="3:12" ht="15.75" customHeight="1">
-      <c r="F56" s="12"/>
+      <c r="F56" s="11"/>
       <c r="K56" s="1" t="s">
         <v>207</v>
       </c>
@@ -4232,7 +4232,7 @@
       </c>
     </row>
     <row r="57" spans="3:12" ht="15.75" customHeight="1">
-      <c r="F57" s="12"/>
+      <c r="F57" s="11"/>
       <c r="K57" s="1" t="s">
         <v>208</v>
       </c>
@@ -4241,7 +4241,7 @@
       </c>
     </row>
     <row r="58" spans="3:12" ht="15.75" customHeight="1">
-      <c r="F58" s="12"/>
+      <c r="F58" s="11"/>
       <c r="K58" s="1" t="s">
         <v>209</v>
       </c>
@@ -4250,7 +4250,7 @@
       </c>
     </row>
     <row r="59" spans="3:12" ht="15.75" customHeight="1">
-      <c r="F59" s="12"/>
+      <c r="F59" s="11"/>
       <c r="K59" s="1" t="s">
         <v>210</v>
       </c>
@@ -4259,7 +4259,7 @@
       </c>
     </row>
     <row r="60" spans="3:12" ht="15.75" customHeight="1">
-      <c r="F60" s="12"/>
+      <c r="F60" s="11"/>
       <c r="K60" s="1" t="s">
         <v>211</v>
       </c>
@@ -4268,7 +4268,7 @@
       </c>
     </row>
     <row r="61" spans="3:12" ht="15.75" customHeight="1">
-      <c r="F61" s="12"/>
+      <c r="F61" s="11"/>
       <c r="K61" s="1" t="s">
         <v>212</v>
       </c>
@@ -4277,7 +4277,7 @@
       </c>
     </row>
     <row r="62" spans="3:12" ht="15.75" customHeight="1">
-      <c r="F62" s="12"/>
+      <c r="F62" s="11"/>
       <c r="K62" s="1" t="s">
         <v>213</v>
       </c>
@@ -4286,7 +4286,7 @@
       </c>
     </row>
     <row r="63" spans="3:12" ht="15.75" customHeight="1">
-      <c r="F63" s="12"/>
+      <c r="F63" s="11"/>
       <c r="K63" s="1" t="s">
         <v>214</v>
       </c>
@@ -4295,7 +4295,7 @@
       </c>
     </row>
     <row r="64" spans="3:12" ht="15.75" customHeight="1">
-      <c r="F64" s="12"/>
+      <c r="F64" s="11"/>
       <c r="K64" s="1" t="s">
         <v>215</v>
       </c>
@@ -4304,7 +4304,7 @@
       </c>
     </row>
     <row r="65" spans="6:13" ht="15.75" customHeight="1">
-      <c r="F65" s="12"/>
+      <c r="F65" s="11"/>
       <c r="K65" s="1" t="s">
         <v>216</v>
       </c>
@@ -4313,7 +4313,7 @@
       </c>
     </row>
     <row r="66" spans="6:13" ht="15.75" customHeight="1">
-      <c r="F66" s="12"/>
+      <c r="F66" s="11"/>
       <c r="K66" s="1" t="s">
         <v>217</v>
       </c>
@@ -4325,7 +4325,7 @@
       </c>
     </row>
     <row r="67" spans="6:13" ht="15.75" customHeight="1">
-      <c r="F67" s="12"/>
+      <c r="F67" s="11"/>
       <c r="K67" s="1" t="s">
         <v>218</v>
       </c>
@@ -4334,7 +4334,7 @@
       </c>
     </row>
     <row r="68" spans="6:13" ht="15.75" customHeight="1">
-      <c r="F68" s="12"/>
+      <c r="F68" s="11"/>
       <c r="K68" s="1" t="s">
         <v>219</v>
       </c>
@@ -4346,7 +4346,7 @@
       </c>
     </row>
     <row r="69" spans="6:13" ht="15.75" customHeight="1">
-      <c r="F69" s="12"/>
+      <c r="F69" s="11"/>
       <c r="K69" s="1" t="s">
         <v>221</v>
       </c>
@@ -4355,7 +4355,7 @@
       </c>
     </row>
     <row r="70" spans="6:13" ht="15.75" customHeight="1">
-      <c r="F70" s="12"/>
+      <c r="F70" s="11"/>
       <c r="K70" s="1" t="s">
         <v>222</v>
       </c>
@@ -4364,7 +4364,7 @@
       </c>
     </row>
     <row r="71" spans="6:13" ht="15.75" customHeight="1">
-      <c r="F71" s="12"/>
+      <c r="F71" s="11"/>
       <c r="K71" s="1" t="s">
         <v>223</v>
       </c>
@@ -4373,7 +4373,7 @@
       </c>
     </row>
     <row r="72" spans="6:13" ht="15.75" customHeight="1">
-      <c r="F72" s="12"/>
+      <c r="F72" s="11"/>
       <c r="K72" s="1" t="s">
         <v>224</v>
       </c>
@@ -4382,7 +4382,7 @@
       </c>
     </row>
     <row r="73" spans="6:13" ht="15.75" customHeight="1">
-      <c r="F73" s="12"/>
+      <c r="F73" s="11"/>
       <c r="K73" s="1" t="s">
         <v>225</v>
       </c>
@@ -4391,7 +4391,7 @@
       </c>
     </row>
     <row r="74" spans="6:13" ht="15.75" customHeight="1">
-      <c r="F74" s="12"/>
+      <c r="F74" s="11"/>
       <c r="K74" s="1" t="s">
         <v>226</v>
       </c>
@@ -4400,7 +4400,7 @@
       </c>
     </row>
     <row r="75" spans="6:13" ht="15.75" customHeight="1">
-      <c r="F75" s="12"/>
+      <c r="F75" s="11"/>
       <c r="K75" s="1" t="s">
         <v>227</v>
       </c>
@@ -4409,7 +4409,7 @@
       </c>
     </row>
     <row r="76" spans="6:13" ht="15.75" customHeight="1">
-      <c r="F76" s="12"/>
+      <c r="F76" s="11"/>
       <c r="K76" s="1" t="s">
         <v>228</v>
       </c>
@@ -4418,7 +4418,7 @@
       </c>
     </row>
     <row r="77" spans="6:13" ht="15.75" customHeight="1">
-      <c r="F77" s="12"/>
+      <c r="F77" s="11"/>
       <c r="K77" s="1" t="s">
         <v>229</v>
       </c>
@@ -4427,7 +4427,7 @@
       </c>
     </row>
     <row r="78" spans="6:13" ht="15.75" customHeight="1">
-      <c r="F78" s="12"/>
+      <c r="F78" s="11"/>
       <c r="K78" s="1" t="s">
         <v>230</v>
       </c>
@@ -4436,7 +4436,7 @@
       </c>
     </row>
     <row r="79" spans="6:13" ht="15.75" customHeight="1">
-      <c r="F79" s="12"/>
+      <c r="F79" s="11"/>
       <c r="K79" s="1" t="s">
         <v>231</v>
       </c>
@@ -4445,7 +4445,7 @@
       </c>
     </row>
     <row r="80" spans="6:13" ht="15.75" customHeight="1">
-      <c r="F80" s="12"/>
+      <c r="F80" s="11"/>
       <c r="K80" s="1" t="s">
         <v>232</v>
       </c>
@@ -4457,7 +4457,7 @@
       </c>
     </row>
     <row r="81" spans="6:13" ht="15.75" customHeight="1">
-      <c r="F81" s="12"/>
+      <c r="F81" s="11"/>
       <c r="K81" s="1" t="s">
         <v>233</v>
       </c>
@@ -4466,7 +4466,7 @@
       </c>
     </row>
     <row r="82" spans="6:13" ht="15.75" customHeight="1">
-      <c r="F82" s="12"/>
+      <c r="F82" s="11"/>
       <c r="K82" s="1" t="s">
         <v>234</v>
       </c>
@@ -4475,7 +4475,7 @@
       </c>
     </row>
     <row r="83" spans="6:13" ht="15.75" customHeight="1">
-      <c r="F83" s="12"/>
+      <c r="F83" s="11"/>
       <c r="K83" s="1" t="s">
         <v>235</v>
       </c>
@@ -4484,7 +4484,7 @@
       </c>
     </row>
     <row r="84" spans="6:13" ht="15.75" customHeight="1">
-      <c r="F84" s="12"/>
+      <c r="F84" s="11"/>
       <c r="K84" s="1" t="s">
         <v>236</v>
       </c>
@@ -4493,7 +4493,7 @@
       </c>
     </row>
     <row r="85" spans="6:13" ht="15.75" customHeight="1">
-      <c r="F85" s="12"/>
+      <c r="F85" s="11"/>
       <c r="K85" s="1" t="s">
         <v>237</v>
       </c>
@@ -4502,7 +4502,7 @@
       </c>
     </row>
     <row r="86" spans="6:13" ht="15.75" customHeight="1">
-      <c r="F86" s="12"/>
+      <c r="F86" s="11"/>
       <c r="K86" s="1" t="s">
         <v>238</v>
       </c>
@@ -4511,7 +4511,7 @@
       </c>
     </row>
     <row r="87" spans="6:13" ht="15.75" customHeight="1">
-      <c r="F87" s="12"/>
+      <c r="F87" s="11"/>
       <c r="K87" s="1" t="s">
         <v>239</v>
       </c>
@@ -4520,7 +4520,7 @@
       </c>
     </row>
     <row r="88" spans="6:13" ht="15.75" customHeight="1">
-      <c r="F88" s="12"/>
+      <c r="F88" s="11"/>
       <c r="K88" s="1" t="s">
         <v>240</v>
       </c>
@@ -4529,7 +4529,7 @@
       </c>
     </row>
     <row r="89" spans="6:13" ht="15.75" customHeight="1">
-      <c r="F89" s="12"/>
+      <c r="F89" s="11"/>
       <c r="K89" s="1" t="s">
         <v>241</v>
       </c>
@@ -4538,7 +4538,7 @@
       </c>
     </row>
     <row r="90" spans="6:13" ht="15.75" customHeight="1">
-      <c r="F90" s="12"/>
+      <c r="F90" s="11"/>
       <c r="K90" s="1" t="s">
         <v>242</v>
       </c>
@@ -4547,7 +4547,7 @@
       </c>
     </row>
     <row r="91" spans="6:13" ht="15.75" customHeight="1">
-      <c r="F91" s="12"/>
+      <c r="F91" s="11"/>
       <c r="K91" s="1" t="s">
         <v>243</v>
       </c>
@@ -4559,7 +4559,7 @@
       </c>
     </row>
     <row r="92" spans="6:13" ht="15.75" customHeight="1">
-      <c r="F92" s="12"/>
+      <c r="F92" s="11"/>
       <c r="K92" s="1" t="s">
         <v>244</v>
       </c>
@@ -4568,7 +4568,7 @@
       </c>
     </row>
     <row r="93" spans="6:13" ht="15.75" customHeight="1">
-      <c r="F93" s="12"/>
+      <c r="F93" s="11"/>
       <c r="K93" s="1" t="s">
         <v>245</v>
       </c>
@@ -4577,7 +4577,7 @@
       </c>
     </row>
     <row r="94" spans="6:13" ht="15.75" customHeight="1">
-      <c r="F94" s="12"/>
+      <c r="F94" s="11"/>
       <c r="K94" s="1" t="s">
         <v>246</v>
       </c>
@@ -4586,7 +4586,7 @@
       </c>
     </row>
     <row r="95" spans="6:13" ht="15.75" customHeight="1">
-      <c r="F95" s="12"/>
+      <c r="F95" s="11"/>
       <c r="K95" s="1" t="s">
         <v>247</v>
       </c>
@@ -4595,7 +4595,7 @@
       </c>
     </row>
     <row r="96" spans="6:13" ht="15.75" customHeight="1">
-      <c r="F96" s="12"/>
+      <c r="F96" s="11"/>
       <c r="K96" s="1" t="s">
         <v>248</v>
       </c>
@@ -4604,7 +4604,7 @@
       </c>
     </row>
     <row r="97" spans="6:13" ht="15.75" customHeight="1">
-      <c r="F97" s="12"/>
+      <c r="F97" s="11"/>
       <c r="K97" s="1" t="s">
         <v>249</v>
       </c>
@@ -4613,7 +4613,7 @@
       </c>
     </row>
     <row r="98" spans="6:13" ht="15.75" customHeight="1">
-      <c r="F98" s="12"/>
+      <c r="F98" s="11"/>
       <c r="K98" s="1" t="s">
         <v>250</v>
       </c>
@@ -4622,7 +4622,7 @@
       </c>
     </row>
     <row r="99" spans="6:13" ht="15.75" customHeight="1">
-      <c r="F99" s="12"/>
+      <c r="F99" s="11"/>
       <c r="K99" s="1" t="s">
         <v>251</v>
       </c>
@@ -4631,7 +4631,7 @@
       </c>
     </row>
     <row r="100" spans="6:13" ht="15.75" customHeight="1">
-      <c r="F100" s="12"/>
+      <c r="F100" s="11"/>
       <c r="K100" s="1" t="s">
         <v>252</v>
       </c>
